--- a/Logboek/Logboek werkwijze.xlsx
+++ b/Logboek/Logboek werkwijze.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\31613\Documents\Leerjaar 2\Periode 2.2\Radicale kunstspeeltuin\Files\Logboek\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\31613\Documents\Leerjaar 2\Periode 2.2\Radicale kunstspeeltuin\Logboek\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C6FC8E4-AE46-458B-80CE-9E3CB327F372}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0F7FA6D-EE5A-4E60-BE2E-A7192B26541B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{E8E2B147-EA8F-468F-BA10-E1A0455F2466}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="16">
   <si>
     <t>Waar</t>
   </si>
@@ -69,13 +69,19 @@
     <t>1/12/2021  9:00 - 13:15</t>
   </si>
   <si>
-    <t>2/12/2021  9:00 - 15:45</t>
-  </si>
-  <si>
     <t>Jamie, Joost, Tessa en Finn.</t>
   </si>
   <si>
     <t xml:space="preserve">We hebben gehoord dat we aankomende weken op excursie met ons groepje moeten. Wij gaan naar het Moco museum om inspiratie op te doen. Voorderest zijn we nog aan het discusieren over het interactieve gedeelte, hebben we een presentatie gemaakt voor 8 December en heb ik onderzoek gedaan over hardware. Ik moest eerder weg vanwege rijlessen die ik al had ingepland. </t>
+  </si>
+  <si>
+    <t>1/12/2021  13:15 - 15:45</t>
+  </si>
+  <si>
+    <t>Contactweg</t>
+  </si>
+  <si>
+    <t>Jamie, Simon en Disa.</t>
   </si>
 </sst>
 </file>
@@ -259,6 +265,33 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -339,33 +372,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -684,60 +690,60 @@
   <dimension ref="B2:W21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K10" sqref="K10:W13"/>
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="2" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B2" s="32" t="s">
+      <c r="B2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="33"/>
-      <c r="D2" s="33"/>
-      <c r="E2" s="33"/>
-      <c r="F2" s="33"/>
-      <c r="G2" s="33"/>
-      <c r="H2" s="33"/>
-      <c r="I2" s="33"/>
-      <c r="J2" s="33"/>
-      <c r="K2" s="33"/>
-      <c r="L2" s="33"/>
-      <c r="M2" s="33"/>
-      <c r="N2" s="33"/>
-      <c r="O2" s="33"/>
-      <c r="P2" s="33"/>
-      <c r="Q2" s="33"/>
-      <c r="R2" s="33"/>
-      <c r="S2" s="33"/>
-      <c r="T2" s="33"/>
-      <c r="U2" s="33"/>
-      <c r="V2" s="33"/>
-      <c r="W2" s="34"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
+      <c r="J2" s="6"/>
+      <c r="K2" s="6"/>
+      <c r="L2" s="6"/>
+      <c r="M2" s="6"/>
+      <c r="N2" s="6"/>
+      <c r="O2" s="6"/>
+      <c r="P2" s="6"/>
+      <c r="Q2" s="6"/>
+      <c r="R2" s="6"/>
+      <c r="S2" s="6"/>
+      <c r="T2" s="6"/>
+      <c r="U2" s="6"/>
+      <c r="V2" s="6"/>
+      <c r="W2" s="7"/>
     </row>
     <row r="3" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B3" s="35"/>
-      <c r="C3" s="36"/>
-      <c r="D3" s="36"/>
-      <c r="E3" s="36"/>
-      <c r="F3" s="36"/>
-      <c r="G3" s="36"/>
-      <c r="H3" s="36"/>
-      <c r="I3" s="36"/>
-      <c r="J3" s="36"/>
-      <c r="K3" s="36"/>
-      <c r="L3" s="36"/>
-      <c r="M3" s="36"/>
-      <c r="N3" s="36"/>
-      <c r="O3" s="36"/>
-      <c r="P3" s="36"/>
-      <c r="Q3" s="36"/>
-      <c r="R3" s="36"/>
-      <c r="S3" s="36"/>
-      <c r="T3" s="36"/>
-      <c r="U3" s="36"/>
-      <c r="V3" s="36"/>
-      <c r="W3" s="37"/>
+      <c r="B3" s="8"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="9"/>
+      <c r="I3" s="9"/>
+      <c r="J3" s="9"/>
+      <c r="K3" s="9"/>
+      <c r="L3" s="9"/>
+      <c r="M3" s="9"/>
+      <c r="N3" s="9"/>
+      <c r="O3" s="9"/>
+      <c r="P3" s="9"/>
+      <c r="Q3" s="9"/>
+      <c r="R3" s="9"/>
+      <c r="S3" s="9"/>
+      <c r="T3" s="9"/>
+      <c r="U3" s="9"/>
+      <c r="V3" s="9"/>
+      <c r="W3" s="10"/>
     </row>
     <row r="4" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B4" s="1"/>
@@ -764,455 +770,451 @@
       <c r="W4" s="1"/>
     </row>
     <row r="5" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B5" s="29" t="s">
+      <c r="B5" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="30"/>
-      <c r="D5" s="31"/>
-      <c r="E5" s="29" t="s">
+      <c r="C5" s="3"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="F5" s="30"/>
-      <c r="G5" s="31"/>
-      <c r="H5" s="29" t="s">
+      <c r="F5" s="3"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="I5" s="30"/>
-      <c r="J5" s="31"/>
-      <c r="K5" s="29" t="s">
+      <c r="I5" s="3"/>
+      <c r="J5" s="4"/>
+      <c r="K5" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="L5" s="30"/>
-      <c r="M5" s="30"/>
-      <c r="N5" s="30"/>
-      <c r="O5" s="30"/>
-      <c r="P5" s="30"/>
-      <c r="Q5" s="30"/>
-      <c r="R5" s="30"/>
-      <c r="S5" s="30"/>
-      <c r="T5" s="30"/>
-      <c r="U5" s="30"/>
-      <c r="V5" s="30"/>
-      <c r="W5" s="31"/>
+      <c r="L5" s="3"/>
+      <c r="M5" s="3"/>
+      <c r="N5" s="3"/>
+      <c r="O5" s="3"/>
+      <c r="P5" s="3"/>
+      <c r="Q5" s="3"/>
+      <c r="R5" s="3"/>
+      <c r="S5" s="3"/>
+      <c r="T5" s="3"/>
+      <c r="U5" s="3"/>
+      <c r="V5" s="3"/>
+      <c r="W5" s="4"/>
     </row>
     <row r="6" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="3"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="11" t="s">
+      <c r="C6" s="12"/>
+      <c r="D6" s="13"/>
+      <c r="E6" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="F6" s="12"/>
-      <c r="G6" s="13"/>
-      <c r="H6" s="11" t="s">
+      <c r="F6" s="21"/>
+      <c r="G6" s="22"/>
+      <c r="H6" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="I6" s="12"/>
-      <c r="J6" s="13"/>
-      <c r="K6" s="20" t="s">
+      <c r="I6" s="21"/>
+      <c r="J6" s="22"/>
+      <c r="K6" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="L6" s="21"/>
-      <c r="M6" s="21"/>
-      <c r="N6" s="21"/>
-      <c r="O6" s="21"/>
-      <c r="P6" s="21"/>
-      <c r="Q6" s="21"/>
-      <c r="R6" s="21"/>
-      <c r="S6" s="21"/>
-      <c r="T6" s="21"/>
-      <c r="U6" s="21"/>
-      <c r="V6" s="21"/>
-      <c r="W6" s="22"/>
+      <c r="L6" s="30"/>
+      <c r="M6" s="30"/>
+      <c r="N6" s="30"/>
+      <c r="O6" s="30"/>
+      <c r="P6" s="30"/>
+      <c r="Q6" s="30"/>
+      <c r="R6" s="30"/>
+      <c r="S6" s="30"/>
+      <c r="T6" s="30"/>
+      <c r="U6" s="30"/>
+      <c r="V6" s="30"/>
+      <c r="W6" s="31"/>
     </row>
     <row r="7" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B7" s="5"/>
-      <c r="C7" s="6"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="14"/>
-      <c r="F7" s="15"/>
-      <c r="G7" s="16"/>
-      <c r="H7" s="14"/>
-      <c r="I7" s="15"/>
-      <c r="J7" s="16"/>
-      <c r="K7" s="23"/>
-      <c r="L7" s="24"/>
-      <c r="M7" s="24"/>
-      <c r="N7" s="24"/>
-      <c r="O7" s="24"/>
-      <c r="P7" s="24"/>
-      <c r="Q7" s="24"/>
-      <c r="R7" s="24"/>
-      <c r="S7" s="24"/>
-      <c r="T7" s="24"/>
-      <c r="U7" s="24"/>
-      <c r="V7" s="24"/>
-      <c r="W7" s="25"/>
+      <c r="B7" s="14"/>
+      <c r="C7" s="15"/>
+      <c r="D7" s="16"/>
+      <c r="E7" s="23"/>
+      <c r="F7" s="24"/>
+      <c r="G7" s="25"/>
+      <c r="H7" s="23"/>
+      <c r="I7" s="24"/>
+      <c r="J7" s="25"/>
+      <c r="K7" s="32"/>
+      <c r="L7" s="33"/>
+      <c r="M7" s="33"/>
+      <c r="N7" s="33"/>
+      <c r="O7" s="33"/>
+      <c r="P7" s="33"/>
+      <c r="Q7" s="33"/>
+      <c r="R7" s="33"/>
+      <c r="S7" s="33"/>
+      <c r="T7" s="33"/>
+      <c r="U7" s="33"/>
+      <c r="V7" s="33"/>
+      <c r="W7" s="34"/>
     </row>
     <row r="8" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B8" s="5"/>
-      <c r="C8" s="6"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="14"/>
-      <c r="F8" s="15"/>
-      <c r="G8" s="16"/>
-      <c r="H8" s="14"/>
-      <c r="I8" s="15"/>
-      <c r="J8" s="16"/>
-      <c r="K8" s="23"/>
-      <c r="L8" s="24"/>
-      <c r="M8" s="24"/>
-      <c r="N8" s="24"/>
-      <c r="O8" s="24"/>
-      <c r="P8" s="24"/>
-      <c r="Q8" s="24"/>
-      <c r="R8" s="24"/>
-      <c r="S8" s="24"/>
-      <c r="T8" s="24"/>
-      <c r="U8" s="24"/>
-      <c r="V8" s="24"/>
-      <c r="W8" s="25"/>
+      <c r="B8" s="14"/>
+      <c r="C8" s="15"/>
+      <c r="D8" s="16"/>
+      <c r="E8" s="23"/>
+      <c r="F8" s="24"/>
+      <c r="G8" s="25"/>
+      <c r="H8" s="23"/>
+      <c r="I8" s="24"/>
+      <c r="J8" s="25"/>
+      <c r="K8" s="32"/>
+      <c r="L8" s="33"/>
+      <c r="M8" s="33"/>
+      <c r="N8" s="33"/>
+      <c r="O8" s="33"/>
+      <c r="P8" s="33"/>
+      <c r="Q8" s="33"/>
+      <c r="R8" s="33"/>
+      <c r="S8" s="33"/>
+      <c r="T8" s="33"/>
+      <c r="U8" s="33"/>
+      <c r="V8" s="33"/>
+      <c r="W8" s="34"/>
     </row>
     <row r="9" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B9" s="8"/>
-      <c r="C9" s="9"/>
-      <c r="D9" s="10"/>
-      <c r="E9" s="17"/>
-      <c r="F9" s="18"/>
-      <c r="G9" s="19"/>
-      <c r="H9" s="17"/>
-      <c r="I9" s="18"/>
-      <c r="J9" s="19"/>
-      <c r="K9" s="26"/>
-      <c r="L9" s="27"/>
-      <c r="M9" s="27"/>
-      <c r="N9" s="27"/>
-      <c r="O9" s="27"/>
-      <c r="P9" s="27"/>
-      <c r="Q9" s="27"/>
-      <c r="R9" s="27"/>
-      <c r="S9" s="27"/>
-      <c r="T9" s="27"/>
-      <c r="U9" s="27"/>
-      <c r="V9" s="27"/>
-      <c r="W9" s="28"/>
+      <c r="B9" s="17"/>
+      <c r="C9" s="18"/>
+      <c r="D9" s="19"/>
+      <c r="E9" s="26"/>
+      <c r="F9" s="27"/>
+      <c r="G9" s="28"/>
+      <c r="H9" s="26"/>
+      <c r="I9" s="27"/>
+      <c r="J9" s="28"/>
+      <c r="K9" s="35"/>
+      <c r="L9" s="36"/>
+      <c r="M9" s="36"/>
+      <c r="N9" s="36"/>
+      <c r="O9" s="36"/>
+      <c r="P9" s="36"/>
+      <c r="Q9" s="36"/>
+      <c r="R9" s="36"/>
+      <c r="S9" s="36"/>
+      <c r="T9" s="36"/>
+      <c r="U9" s="36"/>
+      <c r="V9" s="36"/>
+      <c r="W9" s="37"/>
     </row>
     <row r="10" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B10" s="2" t="s">
+      <c r="B10" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" s="12"/>
+      <c r="D10" s="13"/>
+      <c r="E10" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="F10" s="21"/>
+      <c r="G10" s="22"/>
+      <c r="H10" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="I10" s="21"/>
+      <c r="J10" s="22"/>
+      <c r="K10" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="3"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="11" t="s">
+      <c r="L10" s="30"/>
+      <c r="M10" s="30"/>
+      <c r="N10" s="30"/>
+      <c r="O10" s="30"/>
+      <c r="P10" s="30"/>
+      <c r="Q10" s="30"/>
+      <c r="R10" s="30"/>
+      <c r="S10" s="30"/>
+      <c r="T10" s="30"/>
+      <c r="U10" s="30"/>
+      <c r="V10" s="30"/>
+      <c r="W10" s="31"/>
+    </row>
+    <row r="11" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="B11" s="14"/>
+      <c r="C11" s="15"/>
+      <c r="D11" s="16"/>
+      <c r="E11" s="23"/>
+      <c r="F11" s="24"/>
+      <c r="G11" s="25"/>
+      <c r="H11" s="23"/>
+      <c r="I11" s="24"/>
+      <c r="J11" s="25"/>
+      <c r="K11" s="32"/>
+      <c r="L11" s="33"/>
+      <c r="M11" s="33"/>
+      <c r="N11" s="33"/>
+      <c r="O11" s="33"/>
+      <c r="P11" s="33"/>
+      <c r="Q11" s="33"/>
+      <c r="R11" s="33"/>
+      <c r="S11" s="33"/>
+      <c r="T11" s="33"/>
+      <c r="U11" s="33"/>
+      <c r="V11" s="33"/>
+      <c r="W11" s="34"/>
+    </row>
+    <row r="12" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="B12" s="14"/>
+      <c r="C12" s="15"/>
+      <c r="D12" s="16"/>
+      <c r="E12" s="23"/>
+      <c r="F12" s="24"/>
+      <c r="G12" s="25"/>
+      <c r="H12" s="23"/>
+      <c r="I12" s="24"/>
+      <c r="J12" s="25"/>
+      <c r="K12" s="32"/>
+      <c r="L12" s="33"/>
+      <c r="M12" s="33"/>
+      <c r="N12" s="33"/>
+      <c r="O12" s="33"/>
+      <c r="P12" s="33"/>
+      <c r="Q12" s="33"/>
+      <c r="R12" s="33"/>
+      <c r="S12" s="33"/>
+      <c r="T12" s="33"/>
+      <c r="U12" s="33"/>
+      <c r="V12" s="33"/>
+      <c r="W12" s="34"/>
+    </row>
+    <row r="13" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="B13" s="17"/>
+      <c r="C13" s="18"/>
+      <c r="D13" s="19"/>
+      <c r="E13" s="26"/>
+      <c r="F13" s="27"/>
+      <c r="G13" s="28"/>
+      <c r="H13" s="26"/>
+      <c r="I13" s="27"/>
+      <c r="J13" s="28"/>
+      <c r="K13" s="35"/>
+      <c r="L13" s="36"/>
+      <c r="M13" s="36"/>
+      <c r="N13" s="36"/>
+      <c r="O13" s="36"/>
+      <c r="P13" s="36"/>
+      <c r="Q13" s="36"/>
+      <c r="R13" s="36"/>
+      <c r="S13" s="36"/>
+      <c r="T13" s="36"/>
+      <c r="U13" s="36"/>
+      <c r="V13" s="36"/>
+      <c r="W13" s="37"/>
+    </row>
+    <row r="14" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="B14" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C14" s="12"/>
+      <c r="D14" s="13"/>
+      <c r="E14" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="F10" s="12"/>
-      <c r="G10" s="13"/>
-      <c r="H10" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="I10" s="12"/>
-      <c r="J10" s="13"/>
-      <c r="K10" s="20" t="s">
+      <c r="F14" s="21"/>
+      <c r="G14" s="22"/>
+      <c r="H14" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="I14" s="21"/>
+      <c r="J14" s="22"/>
+      <c r="K14" s="29"/>
+      <c r="L14" s="30"/>
+      <c r="M14" s="30"/>
+      <c r="N14" s="30"/>
+      <c r="O14" s="30"/>
+      <c r="P14" s="30"/>
+      <c r="Q14" s="30"/>
+      <c r="R14" s="30"/>
+      <c r="S14" s="30"/>
+      <c r="T14" s="30"/>
+      <c r="U14" s="30"/>
+      <c r="V14" s="30"/>
+      <c r="W14" s="31"/>
+    </row>
+    <row r="15" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="B15" s="14"/>
+      <c r="C15" s="15"/>
+      <c r="D15" s="16"/>
+      <c r="E15" s="23"/>
+      <c r="F15" s="24"/>
+      <c r="G15" s="25"/>
+      <c r="H15" s="23"/>
+      <c r="I15" s="24"/>
+      <c r="J15" s="25"/>
+      <c r="K15" s="32"/>
+      <c r="L15" s="33"/>
+      <c r="M15" s="33"/>
+      <c r="N15" s="33"/>
+      <c r="O15" s="33"/>
+      <c r="P15" s="33"/>
+      <c r="Q15" s="33"/>
+      <c r="R15" s="33"/>
+      <c r="S15" s="33"/>
+      <c r="T15" s="33"/>
+      <c r="U15" s="33"/>
+      <c r="V15" s="33"/>
+      <c r="W15" s="34"/>
+    </row>
+    <row r="16" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="B16" s="14"/>
+      <c r="C16" s="15"/>
+      <c r="D16" s="16"/>
+      <c r="E16" s="23"/>
+      <c r="F16" s="24"/>
+      <c r="G16" s="25"/>
+      <c r="H16" s="23"/>
+      <c r="I16" s="24"/>
+      <c r="J16" s="25"/>
+      <c r="K16" s="32"/>
+      <c r="L16" s="33"/>
+      <c r="M16" s="33"/>
+      <c r="N16" s="33"/>
+      <c r="O16" s="33"/>
+      <c r="P16" s="33"/>
+      <c r="Q16" s="33"/>
+      <c r="R16" s="33"/>
+      <c r="S16" s="33"/>
+      <c r="T16" s="33"/>
+      <c r="U16" s="33"/>
+      <c r="V16" s="33"/>
+      <c r="W16" s="34"/>
+    </row>
+    <row r="17" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="B17" s="17"/>
+      <c r="C17" s="18"/>
+      <c r="D17" s="19"/>
+      <c r="E17" s="26"/>
+      <c r="F17" s="27"/>
+      <c r="G17" s="28"/>
+      <c r="H17" s="26"/>
+      <c r="I17" s="27"/>
+      <c r="J17" s="28"/>
+      <c r="K17" s="35"/>
+      <c r="L17" s="36"/>
+      <c r="M17" s="36"/>
+      <c r="N17" s="36"/>
+      <c r="O17" s="36"/>
+      <c r="P17" s="36"/>
+      <c r="Q17" s="36"/>
+      <c r="R17" s="36"/>
+      <c r="S17" s="36"/>
+      <c r="T17" s="36"/>
+      <c r="U17" s="36"/>
+      <c r="V17" s="36"/>
+      <c r="W17" s="37"/>
+    </row>
+    <row r="18" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="B18" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="C18" s="12"/>
+      <c r="D18" s="13"/>
+      <c r="E18" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="F18" s="21"/>
+      <c r="G18" s="22"/>
+      <c r="H18" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="L10" s="21"/>
-      <c r="M10" s="21"/>
-      <c r="N10" s="21"/>
-      <c r="O10" s="21"/>
-      <c r="P10" s="21"/>
-      <c r="Q10" s="21"/>
-      <c r="R10" s="21"/>
-      <c r="S10" s="21"/>
-      <c r="T10" s="21"/>
-      <c r="U10" s="21"/>
-      <c r="V10" s="21"/>
-      <c r="W10" s="22"/>
-    </row>
-    <row r="11" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B11" s="5"/>
-      <c r="C11" s="6"/>
-      <c r="D11" s="7"/>
-      <c r="E11" s="14"/>
-      <c r="F11" s="15"/>
-      <c r="G11" s="16"/>
-      <c r="H11" s="14"/>
-      <c r="I11" s="15"/>
-      <c r="J11" s="16"/>
-      <c r="K11" s="23"/>
-      <c r="L11" s="24"/>
-      <c r="M11" s="24"/>
-      <c r="N11" s="24"/>
-      <c r="O11" s="24"/>
-      <c r="P11" s="24"/>
-      <c r="Q11" s="24"/>
-      <c r="R11" s="24"/>
-      <c r="S11" s="24"/>
-      <c r="T11" s="24"/>
-      <c r="U11" s="24"/>
-      <c r="V11" s="24"/>
-      <c r="W11" s="25"/>
-    </row>
-    <row r="12" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B12" s="5"/>
-      <c r="C12" s="6"/>
-      <c r="D12" s="7"/>
-      <c r="E12" s="14"/>
-      <c r="F12" s="15"/>
-      <c r="G12" s="16"/>
-      <c r="H12" s="14"/>
-      <c r="I12" s="15"/>
-      <c r="J12" s="16"/>
-      <c r="K12" s="23"/>
-      <c r="L12" s="24"/>
-      <c r="M12" s="24"/>
-      <c r="N12" s="24"/>
-      <c r="O12" s="24"/>
-      <c r="P12" s="24"/>
-      <c r="Q12" s="24"/>
-      <c r="R12" s="24"/>
-      <c r="S12" s="24"/>
-      <c r="T12" s="24"/>
-      <c r="U12" s="24"/>
-      <c r="V12" s="24"/>
-      <c r="W12" s="25"/>
-    </row>
-    <row r="13" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B13" s="8"/>
-      <c r="C13" s="9"/>
-      <c r="D13" s="10"/>
-      <c r="E13" s="17"/>
-      <c r="F13" s="18"/>
-      <c r="G13" s="19"/>
-      <c r="H13" s="17"/>
-      <c r="I13" s="18"/>
-      <c r="J13" s="19"/>
-      <c r="K13" s="26"/>
-      <c r="L13" s="27"/>
-      <c r="M13" s="27"/>
-      <c r="N13" s="27"/>
-      <c r="O13" s="27"/>
-      <c r="P13" s="27"/>
-      <c r="Q13" s="27"/>
-      <c r="R13" s="27"/>
-      <c r="S13" s="27"/>
-      <c r="T13" s="27"/>
-      <c r="U13" s="27"/>
-      <c r="V13" s="27"/>
-      <c r="W13" s="28"/>
-    </row>
-    <row r="14" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B14" s="2"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="11"/>
-      <c r="F14" s="12"/>
-      <c r="G14" s="13"/>
-      <c r="H14" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="I14" s="12"/>
-      <c r="J14" s="13"/>
-      <c r="K14" s="20"/>
-      <c r="L14" s="21"/>
-      <c r="M14" s="21"/>
-      <c r="N14" s="21"/>
-      <c r="O14" s="21"/>
-      <c r="P14" s="21"/>
-      <c r="Q14" s="21"/>
-      <c r="R14" s="21"/>
-      <c r="S14" s="21"/>
-      <c r="T14" s="21"/>
-      <c r="U14" s="21"/>
-      <c r="V14" s="21"/>
-      <c r="W14" s="22"/>
-    </row>
-    <row r="15" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B15" s="5"/>
-      <c r="C15" s="6"/>
-      <c r="D15" s="7"/>
-      <c r="E15" s="14"/>
-      <c r="F15" s="15"/>
-      <c r="G15" s="16"/>
-      <c r="H15" s="14"/>
-      <c r="I15" s="15"/>
-      <c r="J15" s="16"/>
-      <c r="K15" s="23"/>
-      <c r="L15" s="24"/>
-      <c r="M15" s="24"/>
-      <c r="N15" s="24"/>
-      <c r="O15" s="24"/>
-      <c r="P15" s="24"/>
-      <c r="Q15" s="24"/>
-      <c r="R15" s="24"/>
-      <c r="S15" s="24"/>
-      <c r="T15" s="24"/>
-      <c r="U15" s="24"/>
-      <c r="V15" s="24"/>
-      <c r="W15" s="25"/>
-    </row>
-    <row r="16" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B16" s="5"/>
-      <c r="C16" s="6"/>
-      <c r="D16" s="7"/>
-      <c r="E16" s="14"/>
-      <c r="F16" s="15"/>
-      <c r="G16" s="16"/>
-      <c r="H16" s="14"/>
-      <c r="I16" s="15"/>
-      <c r="J16" s="16"/>
-      <c r="K16" s="23"/>
-      <c r="L16" s="24"/>
-      <c r="M16" s="24"/>
-      <c r="N16" s="24"/>
-      <c r="O16" s="24"/>
-      <c r="P16" s="24"/>
-      <c r="Q16" s="24"/>
-      <c r="R16" s="24"/>
-      <c r="S16" s="24"/>
-      <c r="T16" s="24"/>
-      <c r="U16" s="24"/>
-      <c r="V16" s="24"/>
-      <c r="W16" s="25"/>
-    </row>
-    <row r="17" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B17" s="8"/>
-      <c r="C17" s="9"/>
-      <c r="D17" s="10"/>
-      <c r="E17" s="17"/>
-      <c r="F17" s="18"/>
-      <c r="G17" s="19"/>
-      <c r="H17" s="17"/>
-      <c r="I17" s="18"/>
-      <c r="J17" s="19"/>
-      <c r="K17" s="26"/>
-      <c r="L17" s="27"/>
-      <c r="M17" s="27"/>
-      <c r="N17" s="27"/>
-      <c r="O17" s="27"/>
-      <c r="P17" s="27"/>
-      <c r="Q17" s="27"/>
-      <c r="R17" s="27"/>
-      <c r="S17" s="27"/>
-      <c r="T17" s="27"/>
-      <c r="U17" s="27"/>
-      <c r="V17" s="27"/>
-      <c r="W17" s="28"/>
-    </row>
-    <row r="18" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B18" s="2"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="4"/>
-      <c r="E18" s="11"/>
-      <c r="F18" s="12"/>
-      <c r="G18" s="13"/>
-      <c r="H18" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="I18" s="12"/>
-      <c r="J18" s="13"/>
-      <c r="K18" s="20"/>
-      <c r="L18" s="21"/>
-      <c r="M18" s="21"/>
-      <c r="N18" s="21"/>
-      <c r="O18" s="21"/>
-      <c r="P18" s="21"/>
-      <c r="Q18" s="21"/>
-      <c r="R18" s="21"/>
-      <c r="S18" s="21"/>
-      <c r="T18" s="21"/>
-      <c r="U18" s="21"/>
-      <c r="V18" s="21"/>
-      <c r="W18" s="22"/>
+      <c r="I18" s="21"/>
+      <c r="J18" s="22"/>
+      <c r="K18" s="29"/>
+      <c r="L18" s="30"/>
+      <c r="M18" s="30"/>
+      <c r="N18" s="30"/>
+      <c r="O18" s="30"/>
+      <c r="P18" s="30"/>
+      <c r="Q18" s="30"/>
+      <c r="R18" s="30"/>
+      <c r="S18" s="30"/>
+      <c r="T18" s="30"/>
+      <c r="U18" s="30"/>
+      <c r="V18" s="30"/>
+      <c r="W18" s="31"/>
     </row>
     <row r="19" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B19" s="5"/>
-      <c r="C19" s="6"/>
-      <c r="D19" s="7"/>
-      <c r="E19" s="14"/>
-      <c r="F19" s="15"/>
-      <c r="G19" s="16"/>
-      <c r="H19" s="14"/>
-      <c r="I19" s="15"/>
-      <c r="J19" s="16"/>
-      <c r="K19" s="23"/>
-      <c r="L19" s="24"/>
-      <c r="M19" s="24"/>
-      <c r="N19" s="24"/>
-      <c r="O19" s="24"/>
-      <c r="P19" s="24"/>
-      <c r="Q19" s="24"/>
-      <c r="R19" s="24"/>
-      <c r="S19" s="24"/>
-      <c r="T19" s="24"/>
-      <c r="U19" s="24"/>
-      <c r="V19" s="24"/>
-      <c r="W19" s="25"/>
+      <c r="B19" s="14"/>
+      <c r="C19" s="15"/>
+      <c r="D19" s="16"/>
+      <c r="E19" s="23"/>
+      <c r="F19" s="24"/>
+      <c r="G19" s="25"/>
+      <c r="H19" s="23"/>
+      <c r="I19" s="24"/>
+      <c r="J19" s="25"/>
+      <c r="K19" s="32"/>
+      <c r="L19" s="33"/>
+      <c r="M19" s="33"/>
+      <c r="N19" s="33"/>
+      <c r="O19" s="33"/>
+      <c r="P19" s="33"/>
+      <c r="Q19" s="33"/>
+      <c r="R19" s="33"/>
+      <c r="S19" s="33"/>
+      <c r="T19" s="33"/>
+      <c r="U19" s="33"/>
+      <c r="V19" s="33"/>
+      <c r="W19" s="34"/>
     </row>
     <row r="20" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B20" s="5"/>
-      <c r="C20" s="6"/>
-      <c r="D20" s="7"/>
-      <c r="E20" s="14"/>
-      <c r="F20" s="15"/>
-      <c r="G20" s="16"/>
-      <c r="H20" s="14"/>
-      <c r="I20" s="15"/>
-      <c r="J20" s="16"/>
-      <c r="K20" s="23"/>
-      <c r="L20" s="24"/>
-      <c r="M20" s="24"/>
-      <c r="N20" s="24"/>
-      <c r="O20" s="24"/>
-      <c r="P20" s="24"/>
-      <c r="Q20" s="24"/>
-      <c r="R20" s="24"/>
-      <c r="S20" s="24"/>
-      <c r="T20" s="24"/>
-      <c r="U20" s="24"/>
-      <c r="V20" s="24"/>
-      <c r="W20" s="25"/>
+      <c r="B20" s="14"/>
+      <c r="C20" s="15"/>
+      <c r="D20" s="16"/>
+      <c r="E20" s="23"/>
+      <c r="F20" s="24"/>
+      <c r="G20" s="25"/>
+      <c r="H20" s="23"/>
+      <c r="I20" s="24"/>
+      <c r="J20" s="25"/>
+      <c r="K20" s="32"/>
+      <c r="L20" s="33"/>
+      <c r="M20" s="33"/>
+      <c r="N20" s="33"/>
+      <c r="O20" s="33"/>
+      <c r="P20" s="33"/>
+      <c r="Q20" s="33"/>
+      <c r="R20" s="33"/>
+      <c r="S20" s="33"/>
+      <c r="T20" s="33"/>
+      <c r="U20" s="33"/>
+      <c r="V20" s="33"/>
+      <c r="W20" s="34"/>
     </row>
     <row r="21" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B21" s="8"/>
-      <c r="C21" s="9"/>
-      <c r="D21" s="10"/>
-      <c r="E21" s="17"/>
-      <c r="F21" s="18"/>
-      <c r="G21" s="19"/>
-      <c r="H21" s="17"/>
-      <c r="I21" s="18"/>
-      <c r="J21" s="19"/>
-      <c r="K21" s="26"/>
-      <c r="L21" s="27"/>
-      <c r="M21" s="27"/>
-      <c r="N21" s="27"/>
-      <c r="O21" s="27"/>
-      <c r="P21" s="27"/>
-      <c r="Q21" s="27"/>
-      <c r="R21" s="27"/>
-      <c r="S21" s="27"/>
-      <c r="T21" s="27"/>
-      <c r="U21" s="27"/>
-      <c r="V21" s="27"/>
-      <c r="W21" s="28"/>
+      <c r="B21" s="17"/>
+      <c r="C21" s="18"/>
+      <c r="D21" s="19"/>
+      <c r="E21" s="26"/>
+      <c r="F21" s="27"/>
+      <c r="G21" s="28"/>
+      <c r="H21" s="26"/>
+      <c r="I21" s="27"/>
+      <c r="J21" s="28"/>
+      <c r="K21" s="35"/>
+      <c r="L21" s="36"/>
+      <c r="M21" s="36"/>
+      <c r="N21" s="36"/>
+      <c r="O21" s="36"/>
+      <c r="P21" s="36"/>
+      <c r="Q21" s="36"/>
+      <c r="R21" s="36"/>
+      <c r="S21" s="36"/>
+      <c r="T21" s="36"/>
+      <c r="U21" s="36"/>
+      <c r="V21" s="36"/>
+      <c r="W21" s="37"/>
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="E5:G5"/>
-    <mergeCell ref="H5:J5"/>
-    <mergeCell ref="K5:W5"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="B2:W3"/>
-    <mergeCell ref="B6:D9"/>
-    <mergeCell ref="E6:G9"/>
-    <mergeCell ref="H6:J9"/>
-    <mergeCell ref="K6:W9"/>
-    <mergeCell ref="B10:D13"/>
-    <mergeCell ref="E10:G13"/>
-    <mergeCell ref="H10:J13"/>
     <mergeCell ref="B18:D21"/>
     <mergeCell ref="E18:G21"/>
     <mergeCell ref="H18:J21"/>
@@ -1222,6 +1224,18 @@
     <mergeCell ref="E14:G17"/>
     <mergeCell ref="H14:J17"/>
     <mergeCell ref="K14:W17"/>
+    <mergeCell ref="B6:D9"/>
+    <mergeCell ref="E6:G9"/>
+    <mergeCell ref="H6:J9"/>
+    <mergeCell ref="K6:W9"/>
+    <mergeCell ref="B10:D13"/>
+    <mergeCell ref="E10:G13"/>
+    <mergeCell ref="H10:J13"/>
+    <mergeCell ref="E5:G5"/>
+    <mergeCell ref="H5:J5"/>
+    <mergeCell ref="K5:W5"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="B2:W3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Logboek/Logboek werkwijze.xlsx
+++ b/Logboek/Logboek werkwijze.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\31613\Documents\Leerjaar 2\Periode 2.2\Radicale kunstspeeltuin\Logboek\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0F7FA6D-EE5A-4E60-BE2E-A7192B26541B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1388D4D-237C-4B9E-94B5-D6752F5481B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{E8E2B147-EA8F-468F-BA10-E1A0455F2466}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="17">
   <si>
     <t>Waar</t>
   </si>
@@ -82,6 +82,9 @@
   </si>
   <si>
     <t>Jamie, Simon en Disa.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">In de ochtend heb ik meegeholpen met de marquette maken. We hebben ook een ander design, namelijk een bos met tentakels. </t>
   </si>
 </sst>
 </file>
@@ -265,6 +268,87 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -291,87 +375,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -690,60 +693,60 @@
   <dimension ref="B2:W21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+      <selection activeCell="K18" sqref="K18:W21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="2" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6"/>
-      <c r="J2" s="6"/>
-      <c r="K2" s="6"/>
-      <c r="L2" s="6"/>
-      <c r="M2" s="6"/>
-      <c r="N2" s="6"/>
-      <c r="O2" s="6"/>
-      <c r="P2" s="6"/>
-      <c r="Q2" s="6"/>
-      <c r="R2" s="6"/>
-      <c r="S2" s="6"/>
-      <c r="T2" s="6"/>
-      <c r="U2" s="6"/>
-      <c r="V2" s="6"/>
-      <c r="W2" s="7"/>
+      <c r="C2" s="33"/>
+      <c r="D2" s="33"/>
+      <c r="E2" s="33"/>
+      <c r="F2" s="33"/>
+      <c r="G2" s="33"/>
+      <c r="H2" s="33"/>
+      <c r="I2" s="33"/>
+      <c r="J2" s="33"/>
+      <c r="K2" s="33"/>
+      <c r="L2" s="33"/>
+      <c r="M2" s="33"/>
+      <c r="N2" s="33"/>
+      <c r="O2" s="33"/>
+      <c r="P2" s="33"/>
+      <c r="Q2" s="33"/>
+      <c r="R2" s="33"/>
+      <c r="S2" s="33"/>
+      <c r="T2" s="33"/>
+      <c r="U2" s="33"/>
+      <c r="V2" s="33"/>
+      <c r="W2" s="34"/>
     </row>
     <row r="3" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B3" s="8"/>
-      <c r="C3" s="9"/>
-      <c r="D3" s="9"/>
-      <c r="E3" s="9"/>
-      <c r="F3" s="9"/>
-      <c r="G3" s="9"/>
-      <c r="H3" s="9"/>
-      <c r="I3" s="9"/>
-      <c r="J3" s="9"/>
-      <c r="K3" s="9"/>
-      <c r="L3" s="9"/>
-      <c r="M3" s="9"/>
-      <c r="N3" s="9"/>
-      <c r="O3" s="9"/>
-      <c r="P3" s="9"/>
-      <c r="Q3" s="9"/>
-      <c r="R3" s="9"/>
-      <c r="S3" s="9"/>
-      <c r="T3" s="9"/>
-      <c r="U3" s="9"/>
-      <c r="V3" s="9"/>
-      <c r="W3" s="10"/>
+      <c r="B3" s="35"/>
+      <c r="C3" s="36"/>
+      <c r="D3" s="36"/>
+      <c r="E3" s="36"/>
+      <c r="F3" s="36"/>
+      <c r="G3" s="36"/>
+      <c r="H3" s="36"/>
+      <c r="I3" s="36"/>
+      <c r="J3" s="36"/>
+      <c r="K3" s="36"/>
+      <c r="L3" s="36"/>
+      <c r="M3" s="36"/>
+      <c r="N3" s="36"/>
+      <c r="O3" s="36"/>
+      <c r="P3" s="36"/>
+      <c r="Q3" s="36"/>
+      <c r="R3" s="36"/>
+      <c r="S3" s="36"/>
+      <c r="T3" s="36"/>
+      <c r="U3" s="36"/>
+      <c r="V3" s="36"/>
+      <c r="W3" s="37"/>
     </row>
     <row r="4" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B4" s="1"/>
@@ -770,451 +773,465 @@
       <c r="W4" s="1"/>
     </row>
     <row r="5" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="3"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="2" t="s">
+      <c r="C5" s="30"/>
+      <c r="D5" s="31"/>
+      <c r="E5" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="F5" s="3"/>
-      <c r="G5" s="4"/>
-      <c r="H5" s="2" t="s">
+      <c r="F5" s="30"/>
+      <c r="G5" s="31"/>
+      <c r="H5" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="I5" s="3"/>
-      <c r="J5" s="4"/>
-      <c r="K5" s="2" t="s">
+      <c r="I5" s="30"/>
+      <c r="J5" s="31"/>
+      <c r="K5" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="L5" s="3"/>
-      <c r="M5" s="3"/>
-      <c r="N5" s="3"/>
-      <c r="O5" s="3"/>
-      <c r="P5" s="3"/>
-      <c r="Q5" s="3"/>
-      <c r="R5" s="3"/>
-      <c r="S5" s="3"/>
-      <c r="T5" s="3"/>
-      <c r="U5" s="3"/>
-      <c r="V5" s="3"/>
-      <c r="W5" s="4"/>
+      <c r="L5" s="30"/>
+      <c r="M5" s="30"/>
+      <c r="N5" s="30"/>
+      <c r="O5" s="30"/>
+      <c r="P5" s="30"/>
+      <c r="Q5" s="30"/>
+      <c r="R5" s="30"/>
+      <c r="S5" s="30"/>
+      <c r="T5" s="30"/>
+      <c r="U5" s="30"/>
+      <c r="V5" s="30"/>
+      <c r="W5" s="31"/>
     </row>
     <row r="6" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="11" t="s">
+      <c r="B6" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="12"/>
-      <c r="D6" s="13"/>
-      <c r="E6" s="20" t="s">
+      <c r="C6" s="3"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="F6" s="21"/>
-      <c r="G6" s="22"/>
-      <c r="H6" s="20" t="s">
+      <c r="F6" s="12"/>
+      <c r="G6" s="13"/>
+      <c r="H6" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="I6" s="21"/>
-      <c r="J6" s="22"/>
-      <c r="K6" s="29" t="s">
+      <c r="I6" s="12"/>
+      <c r="J6" s="13"/>
+      <c r="K6" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="L6" s="30"/>
-      <c r="M6" s="30"/>
-      <c r="N6" s="30"/>
-      <c r="O6" s="30"/>
-      <c r="P6" s="30"/>
-      <c r="Q6" s="30"/>
-      <c r="R6" s="30"/>
-      <c r="S6" s="30"/>
-      <c r="T6" s="30"/>
-      <c r="U6" s="30"/>
-      <c r="V6" s="30"/>
-      <c r="W6" s="31"/>
+      <c r="L6" s="21"/>
+      <c r="M6" s="21"/>
+      <c r="N6" s="21"/>
+      <c r="O6" s="21"/>
+      <c r="P6" s="21"/>
+      <c r="Q6" s="21"/>
+      <c r="R6" s="21"/>
+      <c r="S6" s="21"/>
+      <c r="T6" s="21"/>
+      <c r="U6" s="21"/>
+      <c r="V6" s="21"/>
+      <c r="W6" s="22"/>
     </row>
     <row r="7" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B7" s="14"/>
-      <c r="C7" s="15"/>
-      <c r="D7" s="16"/>
-      <c r="E7" s="23"/>
-      <c r="F7" s="24"/>
-      <c r="G7" s="25"/>
-      <c r="H7" s="23"/>
-      <c r="I7" s="24"/>
-      <c r="J7" s="25"/>
-      <c r="K7" s="32"/>
-      <c r="L7" s="33"/>
-      <c r="M7" s="33"/>
-      <c r="N7" s="33"/>
-      <c r="O7" s="33"/>
-      <c r="P7" s="33"/>
-      <c r="Q7" s="33"/>
-      <c r="R7" s="33"/>
-      <c r="S7" s="33"/>
-      <c r="T7" s="33"/>
-      <c r="U7" s="33"/>
-      <c r="V7" s="33"/>
-      <c r="W7" s="34"/>
+      <c r="B7" s="5"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="14"/>
+      <c r="F7" s="15"/>
+      <c r="G7" s="16"/>
+      <c r="H7" s="14"/>
+      <c r="I7" s="15"/>
+      <c r="J7" s="16"/>
+      <c r="K7" s="23"/>
+      <c r="L7" s="24"/>
+      <c r="M7" s="24"/>
+      <c r="N7" s="24"/>
+      <c r="O7" s="24"/>
+      <c r="P7" s="24"/>
+      <c r="Q7" s="24"/>
+      <c r="R7" s="24"/>
+      <c r="S7" s="24"/>
+      <c r="T7" s="24"/>
+      <c r="U7" s="24"/>
+      <c r="V7" s="24"/>
+      <c r="W7" s="25"/>
     </row>
     <row r="8" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B8" s="14"/>
-      <c r="C8" s="15"/>
-      <c r="D8" s="16"/>
-      <c r="E8" s="23"/>
-      <c r="F8" s="24"/>
-      <c r="G8" s="25"/>
-      <c r="H8" s="23"/>
-      <c r="I8" s="24"/>
-      <c r="J8" s="25"/>
-      <c r="K8" s="32"/>
-      <c r="L8" s="33"/>
-      <c r="M8" s="33"/>
-      <c r="N8" s="33"/>
-      <c r="O8" s="33"/>
-      <c r="P8" s="33"/>
-      <c r="Q8" s="33"/>
-      <c r="R8" s="33"/>
-      <c r="S8" s="33"/>
-      <c r="T8" s="33"/>
-      <c r="U8" s="33"/>
-      <c r="V8" s="33"/>
-      <c r="W8" s="34"/>
+      <c r="B8" s="5"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="14"/>
+      <c r="F8" s="15"/>
+      <c r="G8" s="16"/>
+      <c r="H8" s="14"/>
+      <c r="I8" s="15"/>
+      <c r="J8" s="16"/>
+      <c r="K8" s="23"/>
+      <c r="L8" s="24"/>
+      <c r="M8" s="24"/>
+      <c r="N8" s="24"/>
+      <c r="O8" s="24"/>
+      <c r="P8" s="24"/>
+      <c r="Q8" s="24"/>
+      <c r="R8" s="24"/>
+      <c r="S8" s="24"/>
+      <c r="T8" s="24"/>
+      <c r="U8" s="24"/>
+      <c r="V8" s="24"/>
+      <c r="W8" s="25"/>
     </row>
     <row r="9" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B9" s="17"/>
-      <c r="C9" s="18"/>
-      <c r="D9" s="19"/>
-      <c r="E9" s="26"/>
-      <c r="F9" s="27"/>
-      <c r="G9" s="28"/>
-      <c r="H9" s="26"/>
-      <c r="I9" s="27"/>
-      <c r="J9" s="28"/>
-      <c r="K9" s="35"/>
-      <c r="L9" s="36"/>
-      <c r="M9" s="36"/>
-      <c r="N9" s="36"/>
-      <c r="O9" s="36"/>
-      <c r="P9" s="36"/>
-      <c r="Q9" s="36"/>
-      <c r="R9" s="36"/>
-      <c r="S9" s="36"/>
-      <c r="T9" s="36"/>
-      <c r="U9" s="36"/>
-      <c r="V9" s="36"/>
-      <c r="W9" s="37"/>
+      <c r="B9" s="8"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="17"/>
+      <c r="F9" s="18"/>
+      <c r="G9" s="19"/>
+      <c r="H9" s="17"/>
+      <c r="I9" s="18"/>
+      <c r="J9" s="19"/>
+      <c r="K9" s="26"/>
+      <c r="L9" s="27"/>
+      <c r="M9" s="27"/>
+      <c r="N9" s="27"/>
+      <c r="O9" s="27"/>
+      <c r="P9" s="27"/>
+      <c r="Q9" s="27"/>
+      <c r="R9" s="27"/>
+      <c r="S9" s="27"/>
+      <c r="T9" s="27"/>
+      <c r="U9" s="27"/>
+      <c r="V9" s="27"/>
+      <c r="W9" s="28"/>
     </row>
     <row r="10" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B10" s="11" t="s">
+      <c r="B10" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C10" s="12"/>
-      <c r="D10" s="13"/>
-      <c r="E10" s="20" t="s">
+      <c r="C10" s="3"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="F10" s="21"/>
-      <c r="G10" s="22"/>
-      <c r="H10" s="20" t="s">
+      <c r="F10" s="12"/>
+      <c r="G10" s="13"/>
+      <c r="H10" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="I10" s="21"/>
-      <c r="J10" s="22"/>
-      <c r="K10" s="29" t="s">
+      <c r="I10" s="12"/>
+      <c r="J10" s="13"/>
+      <c r="K10" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="L10" s="30"/>
-      <c r="M10" s="30"/>
-      <c r="N10" s="30"/>
-      <c r="O10" s="30"/>
-      <c r="P10" s="30"/>
-      <c r="Q10" s="30"/>
-      <c r="R10" s="30"/>
-      <c r="S10" s="30"/>
-      <c r="T10" s="30"/>
-      <c r="U10" s="30"/>
-      <c r="V10" s="30"/>
-      <c r="W10" s="31"/>
+      <c r="L10" s="21"/>
+      <c r="M10" s="21"/>
+      <c r="N10" s="21"/>
+      <c r="O10" s="21"/>
+      <c r="P10" s="21"/>
+      <c r="Q10" s="21"/>
+      <c r="R10" s="21"/>
+      <c r="S10" s="21"/>
+      <c r="T10" s="21"/>
+      <c r="U10" s="21"/>
+      <c r="V10" s="21"/>
+      <c r="W10" s="22"/>
     </row>
     <row r="11" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B11" s="14"/>
-      <c r="C11" s="15"/>
-      <c r="D11" s="16"/>
-      <c r="E11" s="23"/>
-      <c r="F11" s="24"/>
-      <c r="G11" s="25"/>
-      <c r="H11" s="23"/>
-      <c r="I11" s="24"/>
-      <c r="J11" s="25"/>
-      <c r="K11" s="32"/>
-      <c r="L11" s="33"/>
-      <c r="M11" s="33"/>
-      <c r="N11" s="33"/>
-      <c r="O11" s="33"/>
-      <c r="P11" s="33"/>
-      <c r="Q11" s="33"/>
-      <c r="R11" s="33"/>
-      <c r="S11" s="33"/>
-      <c r="T11" s="33"/>
-      <c r="U11" s="33"/>
-      <c r="V11" s="33"/>
-      <c r="W11" s="34"/>
+      <c r="B11" s="5"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="14"/>
+      <c r="F11" s="15"/>
+      <c r="G11" s="16"/>
+      <c r="H11" s="14"/>
+      <c r="I11" s="15"/>
+      <c r="J11" s="16"/>
+      <c r="K11" s="23"/>
+      <c r="L11" s="24"/>
+      <c r="M11" s="24"/>
+      <c r="N11" s="24"/>
+      <c r="O11" s="24"/>
+      <c r="P11" s="24"/>
+      <c r="Q11" s="24"/>
+      <c r="R11" s="24"/>
+      <c r="S11" s="24"/>
+      <c r="T11" s="24"/>
+      <c r="U11" s="24"/>
+      <c r="V11" s="24"/>
+      <c r="W11" s="25"/>
     </row>
     <row r="12" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B12" s="14"/>
-      <c r="C12" s="15"/>
-      <c r="D12" s="16"/>
-      <c r="E12" s="23"/>
-      <c r="F12" s="24"/>
-      <c r="G12" s="25"/>
-      <c r="H12" s="23"/>
-      <c r="I12" s="24"/>
-      <c r="J12" s="25"/>
-      <c r="K12" s="32"/>
-      <c r="L12" s="33"/>
-      <c r="M12" s="33"/>
-      <c r="N12" s="33"/>
-      <c r="O12" s="33"/>
-      <c r="P12" s="33"/>
-      <c r="Q12" s="33"/>
-      <c r="R12" s="33"/>
-      <c r="S12" s="33"/>
-      <c r="T12" s="33"/>
-      <c r="U12" s="33"/>
-      <c r="V12" s="33"/>
-      <c r="W12" s="34"/>
+      <c r="B12" s="5"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="14"/>
+      <c r="F12" s="15"/>
+      <c r="G12" s="16"/>
+      <c r="H12" s="14"/>
+      <c r="I12" s="15"/>
+      <c r="J12" s="16"/>
+      <c r="K12" s="23"/>
+      <c r="L12" s="24"/>
+      <c r="M12" s="24"/>
+      <c r="N12" s="24"/>
+      <c r="O12" s="24"/>
+      <c r="P12" s="24"/>
+      <c r="Q12" s="24"/>
+      <c r="R12" s="24"/>
+      <c r="S12" s="24"/>
+      <c r="T12" s="24"/>
+      <c r="U12" s="24"/>
+      <c r="V12" s="24"/>
+      <c r="W12" s="25"/>
     </row>
     <row r="13" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B13" s="17"/>
-      <c r="C13" s="18"/>
-      <c r="D13" s="19"/>
-      <c r="E13" s="26"/>
-      <c r="F13" s="27"/>
-      <c r="G13" s="28"/>
-      <c r="H13" s="26"/>
-      <c r="I13" s="27"/>
-      <c r="J13" s="28"/>
-      <c r="K13" s="35"/>
-      <c r="L13" s="36"/>
-      <c r="M13" s="36"/>
-      <c r="N13" s="36"/>
-      <c r="O13" s="36"/>
-      <c r="P13" s="36"/>
-      <c r="Q13" s="36"/>
-      <c r="R13" s="36"/>
-      <c r="S13" s="36"/>
-      <c r="T13" s="36"/>
-      <c r="U13" s="36"/>
-      <c r="V13" s="36"/>
-      <c r="W13" s="37"/>
+      <c r="B13" s="8"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="17"/>
+      <c r="F13" s="18"/>
+      <c r="G13" s="19"/>
+      <c r="H13" s="17"/>
+      <c r="I13" s="18"/>
+      <c r="J13" s="19"/>
+      <c r="K13" s="26"/>
+      <c r="L13" s="27"/>
+      <c r="M13" s="27"/>
+      <c r="N13" s="27"/>
+      <c r="O13" s="27"/>
+      <c r="P13" s="27"/>
+      <c r="Q13" s="27"/>
+      <c r="R13" s="27"/>
+      <c r="S13" s="27"/>
+      <c r="T13" s="27"/>
+      <c r="U13" s="27"/>
+      <c r="V13" s="27"/>
+      <c r="W13" s="28"/>
     </row>
     <row r="14" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B14" s="11" t="s">
+      <c r="B14" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C14" s="12"/>
-      <c r="D14" s="13"/>
-      <c r="E14" s="20" t="s">
+      <c r="C14" s="3"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="F14" s="21"/>
-      <c r="G14" s="22"/>
-      <c r="H14" s="20" t="s">
+      <c r="F14" s="12"/>
+      <c r="G14" s="13"/>
+      <c r="H14" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="I14" s="21"/>
-      <c r="J14" s="22"/>
-      <c r="K14" s="29"/>
-      <c r="L14" s="30"/>
-      <c r="M14" s="30"/>
-      <c r="N14" s="30"/>
-      <c r="O14" s="30"/>
-      <c r="P14" s="30"/>
-      <c r="Q14" s="30"/>
-      <c r="R14" s="30"/>
-      <c r="S14" s="30"/>
-      <c r="T14" s="30"/>
-      <c r="U14" s="30"/>
-      <c r="V14" s="30"/>
-      <c r="W14" s="31"/>
+      <c r="I14" s="12"/>
+      <c r="J14" s="13"/>
+      <c r="K14" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="L14" s="21"/>
+      <c r="M14" s="21"/>
+      <c r="N14" s="21"/>
+      <c r="O14" s="21"/>
+      <c r="P14" s="21"/>
+      <c r="Q14" s="21"/>
+      <c r="R14" s="21"/>
+      <c r="S14" s="21"/>
+      <c r="T14" s="21"/>
+      <c r="U14" s="21"/>
+      <c r="V14" s="21"/>
+      <c r="W14" s="22"/>
     </row>
     <row r="15" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B15" s="14"/>
-      <c r="C15" s="15"/>
-      <c r="D15" s="16"/>
-      <c r="E15" s="23"/>
-      <c r="F15" s="24"/>
-      <c r="G15" s="25"/>
-      <c r="H15" s="23"/>
-      <c r="I15" s="24"/>
-      <c r="J15" s="25"/>
-      <c r="K15" s="32"/>
-      <c r="L15" s="33"/>
-      <c r="M15" s="33"/>
-      <c r="N15" s="33"/>
-      <c r="O15" s="33"/>
-      <c r="P15" s="33"/>
-      <c r="Q15" s="33"/>
-      <c r="R15" s="33"/>
-      <c r="S15" s="33"/>
-      <c r="T15" s="33"/>
-      <c r="U15" s="33"/>
-      <c r="V15" s="33"/>
-      <c r="W15" s="34"/>
+      <c r="B15" s="5"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="14"/>
+      <c r="F15" s="15"/>
+      <c r="G15" s="16"/>
+      <c r="H15" s="14"/>
+      <c r="I15" s="15"/>
+      <c r="J15" s="16"/>
+      <c r="K15" s="23"/>
+      <c r="L15" s="24"/>
+      <c r="M15" s="24"/>
+      <c r="N15" s="24"/>
+      <c r="O15" s="24"/>
+      <c r="P15" s="24"/>
+      <c r="Q15" s="24"/>
+      <c r="R15" s="24"/>
+      <c r="S15" s="24"/>
+      <c r="T15" s="24"/>
+      <c r="U15" s="24"/>
+      <c r="V15" s="24"/>
+      <c r="W15" s="25"/>
     </row>
     <row r="16" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B16" s="14"/>
-      <c r="C16" s="15"/>
-      <c r="D16" s="16"/>
-      <c r="E16" s="23"/>
-      <c r="F16" s="24"/>
-      <c r="G16" s="25"/>
-      <c r="H16" s="23"/>
-      <c r="I16" s="24"/>
-      <c r="J16" s="25"/>
-      <c r="K16" s="32"/>
-      <c r="L16" s="33"/>
-      <c r="M16" s="33"/>
-      <c r="N16" s="33"/>
-      <c r="O16" s="33"/>
-      <c r="P16" s="33"/>
-      <c r="Q16" s="33"/>
-      <c r="R16" s="33"/>
-      <c r="S16" s="33"/>
-      <c r="T16" s="33"/>
-      <c r="U16" s="33"/>
-      <c r="V16" s="33"/>
-      <c r="W16" s="34"/>
+      <c r="B16" s="5"/>
+      <c r="C16" s="6"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="14"/>
+      <c r="F16" s="15"/>
+      <c r="G16" s="16"/>
+      <c r="H16" s="14"/>
+      <c r="I16" s="15"/>
+      <c r="J16" s="16"/>
+      <c r="K16" s="23"/>
+      <c r="L16" s="24"/>
+      <c r="M16" s="24"/>
+      <c r="N16" s="24"/>
+      <c r="O16" s="24"/>
+      <c r="P16" s="24"/>
+      <c r="Q16" s="24"/>
+      <c r="R16" s="24"/>
+      <c r="S16" s="24"/>
+      <c r="T16" s="24"/>
+      <c r="U16" s="24"/>
+      <c r="V16" s="24"/>
+      <c r="W16" s="25"/>
     </row>
     <row r="17" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B17" s="17"/>
-      <c r="C17" s="18"/>
-      <c r="D17" s="19"/>
-      <c r="E17" s="26"/>
-      <c r="F17" s="27"/>
-      <c r="G17" s="28"/>
-      <c r="H17" s="26"/>
-      <c r="I17" s="27"/>
-      <c r="J17" s="28"/>
-      <c r="K17" s="35"/>
-      <c r="L17" s="36"/>
-      <c r="M17" s="36"/>
-      <c r="N17" s="36"/>
-      <c r="O17" s="36"/>
-      <c r="P17" s="36"/>
-      <c r="Q17" s="36"/>
-      <c r="R17" s="36"/>
-      <c r="S17" s="36"/>
-      <c r="T17" s="36"/>
-      <c r="U17" s="36"/>
-      <c r="V17" s="36"/>
-      <c r="W17" s="37"/>
+      <c r="B17" s="8"/>
+      <c r="C17" s="9"/>
+      <c r="D17" s="10"/>
+      <c r="E17" s="17"/>
+      <c r="F17" s="18"/>
+      <c r="G17" s="19"/>
+      <c r="H17" s="17"/>
+      <c r="I17" s="18"/>
+      <c r="J17" s="19"/>
+      <c r="K17" s="26"/>
+      <c r="L17" s="27"/>
+      <c r="M17" s="27"/>
+      <c r="N17" s="27"/>
+      <c r="O17" s="27"/>
+      <c r="P17" s="27"/>
+      <c r="Q17" s="27"/>
+      <c r="R17" s="27"/>
+      <c r="S17" s="27"/>
+      <c r="T17" s="27"/>
+      <c r="U17" s="27"/>
+      <c r="V17" s="27"/>
+      <c r="W17" s="28"/>
     </row>
     <row r="18" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B18" s="11" t="s">
+      <c r="B18" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C18" s="12"/>
-      <c r="D18" s="13"/>
-      <c r="E18" s="20" t="s">
+      <c r="C18" s="3"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="F18" s="21"/>
-      <c r="G18" s="22"/>
-      <c r="H18" s="20" t="s">
+      <c r="F18" s="12"/>
+      <c r="G18" s="13"/>
+      <c r="H18" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="I18" s="21"/>
-      <c r="J18" s="22"/>
-      <c r="K18" s="29"/>
-      <c r="L18" s="30"/>
-      <c r="M18" s="30"/>
-      <c r="N18" s="30"/>
-      <c r="O18" s="30"/>
-      <c r="P18" s="30"/>
-      <c r="Q18" s="30"/>
-      <c r="R18" s="30"/>
-      <c r="S18" s="30"/>
-      <c r="T18" s="30"/>
-      <c r="U18" s="30"/>
-      <c r="V18" s="30"/>
-      <c r="W18" s="31"/>
+      <c r="I18" s="12"/>
+      <c r="J18" s="13"/>
+      <c r="K18" s="20"/>
+      <c r="L18" s="21"/>
+      <c r="M18" s="21"/>
+      <c r="N18" s="21"/>
+      <c r="O18" s="21"/>
+      <c r="P18" s="21"/>
+      <c r="Q18" s="21"/>
+      <c r="R18" s="21"/>
+      <c r="S18" s="21"/>
+      <c r="T18" s="21"/>
+      <c r="U18" s="21"/>
+      <c r="V18" s="21"/>
+      <c r="W18" s="22"/>
     </row>
     <row r="19" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B19" s="14"/>
-      <c r="C19" s="15"/>
-      <c r="D19" s="16"/>
-      <c r="E19" s="23"/>
-      <c r="F19" s="24"/>
-      <c r="G19" s="25"/>
-      <c r="H19" s="23"/>
-      <c r="I19" s="24"/>
-      <c r="J19" s="25"/>
-      <c r="K19" s="32"/>
-      <c r="L19" s="33"/>
-      <c r="M19" s="33"/>
-      <c r="N19" s="33"/>
-      <c r="O19" s="33"/>
-      <c r="P19" s="33"/>
-      <c r="Q19" s="33"/>
-      <c r="R19" s="33"/>
-      <c r="S19" s="33"/>
-      <c r="T19" s="33"/>
-      <c r="U19" s="33"/>
-      <c r="V19" s="33"/>
-      <c r="W19" s="34"/>
+      <c r="B19" s="5"/>
+      <c r="C19" s="6"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="14"/>
+      <c r="F19" s="15"/>
+      <c r="G19" s="16"/>
+      <c r="H19" s="14"/>
+      <c r="I19" s="15"/>
+      <c r="J19" s="16"/>
+      <c r="K19" s="23"/>
+      <c r="L19" s="24"/>
+      <c r="M19" s="24"/>
+      <c r="N19" s="24"/>
+      <c r="O19" s="24"/>
+      <c r="P19" s="24"/>
+      <c r="Q19" s="24"/>
+      <c r="R19" s="24"/>
+      <c r="S19" s="24"/>
+      <c r="T19" s="24"/>
+      <c r="U19" s="24"/>
+      <c r="V19" s="24"/>
+      <c r="W19" s="25"/>
     </row>
     <row r="20" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B20" s="14"/>
-      <c r="C20" s="15"/>
-      <c r="D20" s="16"/>
-      <c r="E20" s="23"/>
-      <c r="F20" s="24"/>
-      <c r="G20" s="25"/>
-      <c r="H20" s="23"/>
-      <c r="I20" s="24"/>
-      <c r="J20" s="25"/>
-      <c r="K20" s="32"/>
-      <c r="L20" s="33"/>
-      <c r="M20" s="33"/>
-      <c r="N20" s="33"/>
-      <c r="O20" s="33"/>
-      <c r="P20" s="33"/>
-      <c r="Q20" s="33"/>
-      <c r="R20" s="33"/>
-      <c r="S20" s="33"/>
-      <c r="T20" s="33"/>
-      <c r="U20" s="33"/>
-      <c r="V20" s="33"/>
-      <c r="W20" s="34"/>
+      <c r="B20" s="5"/>
+      <c r="C20" s="6"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="14"/>
+      <c r="F20" s="15"/>
+      <c r="G20" s="16"/>
+      <c r="H20" s="14"/>
+      <c r="I20" s="15"/>
+      <c r="J20" s="16"/>
+      <c r="K20" s="23"/>
+      <c r="L20" s="24"/>
+      <c r="M20" s="24"/>
+      <c r="N20" s="24"/>
+      <c r="O20" s="24"/>
+      <c r="P20" s="24"/>
+      <c r="Q20" s="24"/>
+      <c r="R20" s="24"/>
+      <c r="S20" s="24"/>
+      <c r="T20" s="24"/>
+      <c r="U20" s="24"/>
+      <c r="V20" s="24"/>
+      <c r="W20" s="25"/>
     </row>
     <row r="21" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B21" s="17"/>
-      <c r="C21" s="18"/>
-      <c r="D21" s="19"/>
-      <c r="E21" s="26"/>
-      <c r="F21" s="27"/>
-      <c r="G21" s="28"/>
-      <c r="H21" s="26"/>
-      <c r="I21" s="27"/>
-      <c r="J21" s="28"/>
-      <c r="K21" s="35"/>
-      <c r="L21" s="36"/>
-      <c r="M21" s="36"/>
-      <c r="N21" s="36"/>
-      <c r="O21" s="36"/>
-      <c r="P21" s="36"/>
-      <c r="Q21" s="36"/>
-      <c r="R21" s="36"/>
-      <c r="S21" s="36"/>
-      <c r="T21" s="36"/>
-      <c r="U21" s="36"/>
-      <c r="V21" s="36"/>
-      <c r="W21" s="37"/>
+      <c r="B21" s="8"/>
+      <c r="C21" s="9"/>
+      <c r="D21" s="10"/>
+      <c r="E21" s="17"/>
+      <c r="F21" s="18"/>
+      <c r="G21" s="19"/>
+      <c r="H21" s="17"/>
+      <c r="I21" s="18"/>
+      <c r="J21" s="19"/>
+      <c r="K21" s="26"/>
+      <c r="L21" s="27"/>
+      <c r="M21" s="27"/>
+      <c r="N21" s="27"/>
+      <c r="O21" s="27"/>
+      <c r="P21" s="27"/>
+      <c r="Q21" s="27"/>
+      <c r="R21" s="27"/>
+      <c r="S21" s="27"/>
+      <c r="T21" s="27"/>
+      <c r="U21" s="27"/>
+      <c r="V21" s="27"/>
+      <c r="W21" s="28"/>
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="E5:G5"/>
+    <mergeCell ref="H5:J5"/>
+    <mergeCell ref="K5:W5"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="B2:W3"/>
+    <mergeCell ref="B6:D9"/>
+    <mergeCell ref="E6:G9"/>
+    <mergeCell ref="H6:J9"/>
+    <mergeCell ref="K6:W9"/>
+    <mergeCell ref="B10:D13"/>
+    <mergeCell ref="E10:G13"/>
+    <mergeCell ref="H10:J13"/>
     <mergeCell ref="B18:D21"/>
     <mergeCell ref="E18:G21"/>
     <mergeCell ref="H18:J21"/>
@@ -1224,18 +1241,6 @@
     <mergeCell ref="E14:G17"/>
     <mergeCell ref="H14:J17"/>
     <mergeCell ref="K14:W17"/>
-    <mergeCell ref="B6:D9"/>
-    <mergeCell ref="E6:G9"/>
-    <mergeCell ref="H6:J9"/>
-    <mergeCell ref="K6:W9"/>
-    <mergeCell ref="B10:D13"/>
-    <mergeCell ref="E10:G13"/>
-    <mergeCell ref="H10:J13"/>
-    <mergeCell ref="E5:G5"/>
-    <mergeCell ref="H5:J5"/>
-    <mergeCell ref="K5:W5"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="B2:W3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Logboek/Logboek werkwijze.xlsx
+++ b/Logboek/Logboek werkwijze.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\31613\Documents\Leerjaar 2\Periode 2.2\Radicale kunstspeeltuin\Logboek\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1388D4D-237C-4B9E-94B5-D6752F5481B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCE0EC74-F635-4FFE-B696-73FCD53244D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{E8E2B147-EA8F-468F-BA10-E1A0455F2466}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="19">
   <si>
     <t>Waar</t>
   </si>
@@ -51,18 +51,12 @@
     <t xml:space="preserve">Factory </t>
   </si>
   <si>
-    <t>24/11/2021  9:00 - 13:15</t>
-  </si>
-  <si>
     <t>Logboek werkwijze</t>
   </si>
   <si>
     <t xml:space="preserve">Ik heb vandaag mijn groepje ontmoet omdat ik er niet bij was bij de briefing. We hebben een plan verzonnen en ontwerp gemaakt met als schilder: Yayoi Kusama. De trello en github repository zijn aangemaakt. </t>
   </si>
   <si>
-    <t>25/11/2021  9:00 - 11:00</t>
-  </si>
-  <si>
     <t>Jamie, Joost, Tessa, Finn, Simon en Disa.</t>
   </si>
   <si>
@@ -85,6 +79,18 @@
   </si>
   <si>
     <t xml:space="preserve">In de ochtend heb ik meegeholpen met de marquette maken. We hebben ook een ander design, namelijk een bos met tentakels. </t>
+  </si>
+  <si>
+    <t>2/12/2021  09:00 - 15:45</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ik en mijn MV team zijn aan de gebruikers onderzoek bezig geweest. </t>
+  </si>
+  <si>
+    <t>24/11/2021  9:00 - 13:15    (Sprint 0)</t>
+  </si>
+  <si>
+    <t>25/11/2021  9:00 - 11:00      (Sprint 0)</t>
   </si>
 </sst>
 </file>
@@ -263,7 +269,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -375,6 +381,33 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -690,17 +723,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36C63D28-FEAB-4171-A5E8-05BE78072A85}">
-  <dimension ref="B2:W21"/>
+  <dimension ref="B2:W25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K18" sqref="K18:W21"/>
+      <selection activeCell="K6" sqref="K6:W9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="2" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B2" s="32" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C2" s="33"/>
       <c r="D2" s="33"/>
@@ -806,7 +839,7 @@
     </row>
     <row r="6" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C6" s="3"/>
       <c r="D6" s="4"/>
@@ -815,13 +848,13 @@
       </c>
       <c r="F6" s="12"/>
       <c r="G6" s="13"/>
-      <c r="H6" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="I6" s="12"/>
-      <c r="J6" s="13"/>
+      <c r="H6" s="38" t="s">
+        <v>17</v>
+      </c>
+      <c r="I6" s="39"/>
+      <c r="J6" s="40"/>
       <c r="K6" s="20" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="L6" s="21"/>
       <c r="M6" s="21"/>
@@ -843,9 +876,9 @@
       <c r="E7" s="14"/>
       <c r="F7" s="15"/>
       <c r="G7" s="16"/>
-      <c r="H7" s="14"/>
-      <c r="I7" s="15"/>
-      <c r="J7" s="16"/>
+      <c r="H7" s="41"/>
+      <c r="I7" s="42"/>
+      <c r="J7" s="43"/>
       <c r="K7" s="23"/>
       <c r="L7" s="24"/>
       <c r="M7" s="24"/>
@@ -867,9 +900,9 @@
       <c r="E8" s="14"/>
       <c r="F8" s="15"/>
       <c r="G8" s="16"/>
-      <c r="H8" s="14"/>
-      <c r="I8" s="15"/>
-      <c r="J8" s="16"/>
+      <c r="H8" s="41"/>
+      <c r="I8" s="42"/>
+      <c r="J8" s="43"/>
       <c r="K8" s="23"/>
       <c r="L8" s="24"/>
       <c r="M8" s="24"/>
@@ -891,9 +924,9 @@
       <c r="E9" s="17"/>
       <c r="F9" s="18"/>
       <c r="G9" s="19"/>
-      <c r="H9" s="17"/>
-      <c r="I9" s="18"/>
-      <c r="J9" s="19"/>
+      <c r="H9" s="44"/>
+      <c r="I9" s="45"/>
+      <c r="J9" s="46"/>
       <c r="K9" s="26"/>
       <c r="L9" s="27"/>
       <c r="M9" s="27"/>
@@ -908,9 +941,9 @@
       <c r="V9" s="27"/>
       <c r="W9" s="28"/>
     </row>
-    <row r="10" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B10" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C10" s="3"/>
       <c r="D10" s="4"/>
@@ -919,13 +952,13 @@
       </c>
       <c r="F10" s="12"/>
       <c r="G10" s="13"/>
-      <c r="H10" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="I10" s="12"/>
-      <c r="J10" s="13"/>
+      <c r="H10" s="38" t="s">
+        <v>18</v>
+      </c>
+      <c r="I10" s="39"/>
+      <c r="J10" s="40"/>
       <c r="K10" s="20" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="L10" s="21"/>
       <c r="M10" s="21"/>
@@ -947,9 +980,9 @@
       <c r="E11" s="14"/>
       <c r="F11" s="15"/>
       <c r="G11" s="16"/>
-      <c r="H11" s="14"/>
-      <c r="I11" s="15"/>
-      <c r="J11" s="16"/>
+      <c r="H11" s="41"/>
+      <c r="I11" s="42"/>
+      <c r="J11" s="43"/>
       <c r="K11" s="23"/>
       <c r="L11" s="24"/>
       <c r="M11" s="24"/>
@@ -971,9 +1004,9 @@
       <c r="E12" s="14"/>
       <c r="F12" s="15"/>
       <c r="G12" s="16"/>
-      <c r="H12" s="14"/>
-      <c r="I12" s="15"/>
-      <c r="J12" s="16"/>
+      <c r="H12" s="41"/>
+      <c r="I12" s="42"/>
+      <c r="J12" s="43"/>
       <c r="K12" s="23"/>
       <c r="L12" s="24"/>
       <c r="M12" s="24"/>
@@ -995,9 +1028,9 @@
       <c r="E13" s="17"/>
       <c r="F13" s="18"/>
       <c r="G13" s="19"/>
-      <c r="H13" s="17"/>
-      <c r="I13" s="18"/>
-      <c r="J13" s="19"/>
+      <c r="H13" s="44"/>
+      <c r="I13" s="45"/>
+      <c r="J13" s="46"/>
       <c r="K13" s="26"/>
       <c r="L13" s="27"/>
       <c r="M13" s="27"/>
@@ -1012,9 +1045,9 @@
       <c r="V13" s="27"/>
       <c r="W13" s="28"/>
     </row>
-    <row r="14" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B14" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C14" s="3"/>
       <c r="D14" s="4"/>
@@ -1024,12 +1057,12 @@
       <c r="F14" s="12"/>
       <c r="G14" s="13"/>
       <c r="H14" s="11" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="I14" s="12"/>
       <c r="J14" s="13"/>
       <c r="K14" s="20" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="L14" s="21"/>
       <c r="M14" s="21"/>
@@ -1116,23 +1149,25 @@
       <c r="V17" s="27"/>
       <c r="W17" s="28"/>
     </row>
-    <row r="18" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B18" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C18" s="3"/>
       <c r="D18" s="4"/>
       <c r="E18" s="11" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F18" s="12"/>
       <c r="G18" s="13"/>
       <c r="H18" s="11" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="I18" s="12"/>
       <c r="J18" s="13"/>
-      <c r="K18" s="20"/>
+      <c r="K18" s="20" t="s">
+        <v>16</v>
+      </c>
       <c r="L18" s="21"/>
       <c r="M18" s="21"/>
       <c r="N18" s="21"/>
@@ -1218,8 +1253,114 @@
       <c r="V21" s="27"/>
       <c r="W21" s="28"/>
     </row>
+    <row r="22" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B22" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C22" s="3"/>
+      <c r="D22" s="4"/>
+      <c r="E22" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="F22" s="12"/>
+      <c r="G22" s="13"/>
+      <c r="H22" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="I22" s="12"/>
+      <c r="J22" s="13"/>
+      <c r="K22" s="20"/>
+      <c r="L22" s="21"/>
+      <c r="M22" s="21"/>
+      <c r="N22" s="21"/>
+      <c r="O22" s="21"/>
+      <c r="P22" s="21"/>
+      <c r="Q22" s="21"/>
+      <c r="R22" s="21"/>
+      <c r="S22" s="21"/>
+      <c r="T22" s="21"/>
+      <c r="U22" s="21"/>
+      <c r="V22" s="21"/>
+      <c r="W22" s="22"/>
+    </row>
+    <row r="23" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="B23" s="5"/>
+      <c r="C23" s="6"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="14"/>
+      <c r="F23" s="15"/>
+      <c r="G23" s="16"/>
+      <c r="H23" s="14"/>
+      <c r="I23" s="15"/>
+      <c r="J23" s="16"/>
+      <c r="K23" s="23"/>
+      <c r="L23" s="24"/>
+      <c r="M23" s="24"/>
+      <c r="N23" s="24"/>
+      <c r="O23" s="24"/>
+      <c r="P23" s="24"/>
+      <c r="Q23" s="24"/>
+      <c r="R23" s="24"/>
+      <c r="S23" s="24"/>
+      <c r="T23" s="24"/>
+      <c r="U23" s="24"/>
+      <c r="V23" s="24"/>
+      <c r="W23" s="25"/>
+    </row>
+    <row r="24" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="B24" s="5"/>
+      <c r="C24" s="6"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="14"/>
+      <c r="F24" s="15"/>
+      <c r="G24" s="16"/>
+      <c r="H24" s="14"/>
+      <c r="I24" s="15"/>
+      <c r="J24" s="16"/>
+      <c r="K24" s="23"/>
+      <c r="L24" s="24"/>
+      <c r="M24" s="24"/>
+      <c r="N24" s="24"/>
+      <c r="O24" s="24"/>
+      <c r="P24" s="24"/>
+      <c r="Q24" s="24"/>
+      <c r="R24" s="24"/>
+      <c r="S24" s="24"/>
+      <c r="T24" s="24"/>
+      <c r="U24" s="24"/>
+      <c r="V24" s="24"/>
+      <c r="W24" s="25"/>
+    </row>
+    <row r="25" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="B25" s="8"/>
+      <c r="C25" s="9"/>
+      <c r="D25" s="10"/>
+      <c r="E25" s="17"/>
+      <c r="F25" s="18"/>
+      <c r="G25" s="19"/>
+      <c r="H25" s="17"/>
+      <c r="I25" s="18"/>
+      <c r="J25" s="19"/>
+      <c r="K25" s="26"/>
+      <c r="L25" s="27"/>
+      <c r="M25" s="27"/>
+      <c r="N25" s="27"/>
+      <c r="O25" s="27"/>
+      <c r="P25" s="27"/>
+      <c r="Q25" s="27"/>
+      <c r="R25" s="27"/>
+      <c r="S25" s="27"/>
+      <c r="T25" s="27"/>
+      <c r="U25" s="27"/>
+      <c r="V25" s="27"/>
+      <c r="W25" s="28"/>
+    </row>
   </sheetData>
-  <mergeCells count="21">
+  <mergeCells count="25">
+    <mergeCell ref="B22:D25"/>
+    <mergeCell ref="E22:G25"/>
+    <mergeCell ref="H22:J25"/>
+    <mergeCell ref="K22:W25"/>
     <mergeCell ref="E5:G5"/>
     <mergeCell ref="H5:J5"/>
     <mergeCell ref="K5:W5"/>

--- a/Logboek/Logboek werkwijze.xlsx
+++ b/Logboek/Logboek werkwijze.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\31613\Documents\Leerjaar 2\Periode 2.2\Radicale kunstspeeltuin\Logboek\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\31613\Documents\Mediacollege Amsterdam\Leerjaar 2\Periode 2.2\Radicale kunstspeeltuin\Logboek\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCE0EC74-F635-4FFE-B696-73FCD53244D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70761C69-BD44-4C1E-9DEC-0F8941B402B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{E8E2B147-EA8F-468F-BA10-E1A0455F2466}"/>
   </bookViews>
@@ -60,18 +60,12 @@
     <t>Jamie, Joost, Tessa, Finn, Simon en Disa.</t>
   </si>
   <si>
-    <t>1/12/2021  9:00 - 13:15</t>
-  </si>
-  <si>
     <t>Jamie, Joost, Tessa en Finn.</t>
   </si>
   <si>
     <t xml:space="preserve">We hebben gehoord dat we aankomende weken op excursie met ons groepje moeten. Wij gaan naar het Moco museum om inspiratie op te doen. Voorderest zijn we nog aan het discusieren over het interactieve gedeelte, hebben we een presentatie gemaakt voor 8 December en heb ik onderzoek gedaan over hardware. Ik moest eerder weg vanwege rijlessen die ik al had ingepland. </t>
   </si>
   <si>
-    <t>1/12/2021  13:15 - 15:45</t>
-  </si>
-  <si>
     <t>Contactweg</t>
   </si>
   <si>
@@ -81,9 +75,6 @@
     <t xml:space="preserve">In de ochtend heb ik meegeholpen met de marquette maken. We hebben ook een ander design, namelijk een bos met tentakels. </t>
   </si>
   <si>
-    <t>2/12/2021  09:00 - 15:45</t>
-  </si>
-  <si>
     <t xml:space="preserve">Ik en mijn MV team zijn aan de gebruikers onderzoek bezig geweest. </t>
   </si>
   <si>
@@ -91,6 +82,15 @@
   </si>
   <si>
     <t>25/11/2021  9:00 - 11:00      (Sprint 0)</t>
+  </si>
+  <si>
+    <t>1/12/2021  9:00 - 13:15      (Sprint 0)</t>
+  </si>
+  <si>
+    <t>1/12/2021  13:15 - 15:45    (Sprint 0)</t>
+  </si>
+  <si>
+    <t>2/12/2021  09:00 - 15:45    (Sprint 0)</t>
   </si>
 </sst>
 </file>
@@ -726,7 +726,7 @@
   <dimension ref="B2:W25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K6" sqref="K6:W9"/>
+      <selection activeCell="K22" sqref="K22:W25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -849,7 +849,7 @@
       <c r="F6" s="12"/>
       <c r="G6" s="13"/>
       <c r="H6" s="38" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="I6" s="39"/>
       <c r="J6" s="40"/>
@@ -943,7 +943,7 @@
     </row>
     <row r="10" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B10" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C10" s="3"/>
       <c r="D10" s="4"/>
@@ -953,12 +953,12 @@
       <c r="F10" s="12"/>
       <c r="G10" s="13"/>
       <c r="H10" s="38" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="I10" s="39"/>
       <c r="J10" s="40"/>
       <c r="K10" s="20" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="L10" s="21"/>
       <c r="M10" s="21"/>
@@ -1047,7 +1047,7 @@
     </row>
     <row r="14" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B14" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C14" s="3"/>
       <c r="D14" s="4"/>
@@ -1056,13 +1056,13 @@
       </c>
       <c r="F14" s="12"/>
       <c r="G14" s="13"/>
-      <c r="H14" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="I14" s="12"/>
-      <c r="J14" s="13"/>
+      <c r="H14" s="38" t="s">
+        <v>16</v>
+      </c>
+      <c r="I14" s="39"/>
+      <c r="J14" s="40"/>
       <c r="K14" s="20" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="L14" s="21"/>
       <c r="M14" s="21"/>
@@ -1084,9 +1084,9 @@
       <c r="E15" s="14"/>
       <c r="F15" s="15"/>
       <c r="G15" s="16"/>
-      <c r="H15" s="14"/>
-      <c r="I15" s="15"/>
-      <c r="J15" s="16"/>
+      <c r="H15" s="41"/>
+      <c r="I15" s="42"/>
+      <c r="J15" s="43"/>
       <c r="K15" s="23"/>
       <c r="L15" s="24"/>
       <c r="M15" s="24"/>
@@ -1108,9 +1108,9 @@
       <c r="E16" s="14"/>
       <c r="F16" s="15"/>
       <c r="G16" s="16"/>
-      <c r="H16" s="14"/>
-      <c r="I16" s="15"/>
-      <c r="J16" s="16"/>
+      <c r="H16" s="41"/>
+      <c r="I16" s="42"/>
+      <c r="J16" s="43"/>
       <c r="K16" s="23"/>
       <c r="L16" s="24"/>
       <c r="M16" s="24"/>
@@ -1132,9 +1132,9 @@
       <c r="E17" s="17"/>
       <c r="F17" s="18"/>
       <c r="G17" s="19"/>
-      <c r="H17" s="17"/>
-      <c r="I17" s="18"/>
-      <c r="J17" s="19"/>
+      <c r="H17" s="44"/>
+      <c r="I17" s="45"/>
+      <c r="J17" s="46"/>
       <c r="K17" s="26"/>
       <c r="L17" s="27"/>
       <c r="M17" s="27"/>
@@ -1151,22 +1151,22 @@
     </row>
     <row r="18" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B18" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C18" s="3"/>
       <c r="D18" s="4"/>
       <c r="E18" s="11" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F18" s="12"/>
       <c r="G18" s="13"/>
-      <c r="H18" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="I18" s="12"/>
-      <c r="J18" s="13"/>
+      <c r="H18" s="38" t="s">
+        <v>17</v>
+      </c>
+      <c r="I18" s="39"/>
+      <c r="J18" s="40"/>
       <c r="K18" s="20" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="L18" s="21"/>
       <c r="M18" s="21"/>
@@ -1188,9 +1188,9 @@
       <c r="E19" s="14"/>
       <c r="F19" s="15"/>
       <c r="G19" s="16"/>
-      <c r="H19" s="14"/>
-      <c r="I19" s="15"/>
-      <c r="J19" s="16"/>
+      <c r="H19" s="41"/>
+      <c r="I19" s="42"/>
+      <c r="J19" s="43"/>
       <c r="K19" s="23"/>
       <c r="L19" s="24"/>
       <c r="M19" s="24"/>
@@ -1212,9 +1212,9 @@
       <c r="E20" s="14"/>
       <c r="F20" s="15"/>
       <c r="G20" s="16"/>
-      <c r="H20" s="14"/>
-      <c r="I20" s="15"/>
-      <c r="J20" s="16"/>
+      <c r="H20" s="41"/>
+      <c r="I20" s="42"/>
+      <c r="J20" s="43"/>
       <c r="K20" s="23"/>
       <c r="L20" s="24"/>
       <c r="M20" s="24"/>
@@ -1236,9 +1236,9 @@
       <c r="E21" s="17"/>
       <c r="F21" s="18"/>
       <c r="G21" s="19"/>
-      <c r="H21" s="17"/>
-      <c r="I21" s="18"/>
-      <c r="J21" s="19"/>
+      <c r="H21" s="44"/>
+      <c r="I21" s="45"/>
+      <c r="J21" s="46"/>
       <c r="K21" s="26"/>
       <c r="L21" s="27"/>
       <c r="M21" s="27"/>
@@ -1255,7 +1255,7 @@
     </row>
     <row r="22" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B22" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C22" s="3"/>
       <c r="D22" s="4"/>
@@ -1264,11 +1264,11 @@
       </c>
       <c r="F22" s="12"/>
       <c r="G22" s="13"/>
-      <c r="H22" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="I22" s="12"/>
-      <c r="J22" s="13"/>
+      <c r="H22" s="38" t="s">
+        <v>18</v>
+      </c>
+      <c r="I22" s="39"/>
+      <c r="J22" s="40"/>
       <c r="K22" s="20"/>
       <c r="L22" s="21"/>
       <c r="M22" s="21"/>
@@ -1290,9 +1290,9 @@
       <c r="E23" s="14"/>
       <c r="F23" s="15"/>
       <c r="G23" s="16"/>
-      <c r="H23" s="14"/>
-      <c r="I23" s="15"/>
-      <c r="J23" s="16"/>
+      <c r="H23" s="41"/>
+      <c r="I23" s="42"/>
+      <c r="J23" s="43"/>
       <c r="K23" s="23"/>
       <c r="L23" s="24"/>
       <c r="M23" s="24"/>
@@ -1314,9 +1314,9 @@
       <c r="E24" s="14"/>
       <c r="F24" s="15"/>
       <c r="G24" s="16"/>
-      <c r="H24" s="14"/>
-      <c r="I24" s="15"/>
-      <c r="J24" s="16"/>
+      <c r="H24" s="41"/>
+      <c r="I24" s="42"/>
+      <c r="J24" s="43"/>
       <c r="K24" s="23"/>
       <c r="L24" s="24"/>
       <c r="M24" s="24"/>
@@ -1338,9 +1338,9 @@
       <c r="E25" s="17"/>
       <c r="F25" s="18"/>
       <c r="G25" s="19"/>
-      <c r="H25" s="17"/>
-      <c r="I25" s="18"/>
-      <c r="J25" s="19"/>
+      <c r="H25" s="44"/>
+      <c r="I25" s="45"/>
+      <c r="J25" s="46"/>
       <c r="K25" s="26"/>
       <c r="L25" s="27"/>
       <c r="M25" s="27"/>
@@ -1357,6 +1357,15 @@
     </row>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="B14:D17"/>
+    <mergeCell ref="E14:G17"/>
+    <mergeCell ref="H14:J17"/>
+    <mergeCell ref="K14:W17"/>
+    <mergeCell ref="B2:W3"/>
+    <mergeCell ref="B6:D9"/>
+    <mergeCell ref="E6:G9"/>
+    <mergeCell ref="H6:J9"/>
+    <mergeCell ref="K6:W9"/>
     <mergeCell ref="B22:D25"/>
     <mergeCell ref="E22:G25"/>
     <mergeCell ref="H22:J25"/>
@@ -1365,11 +1374,6 @@
     <mergeCell ref="H5:J5"/>
     <mergeCell ref="K5:W5"/>
     <mergeCell ref="B5:D5"/>
-    <mergeCell ref="B2:W3"/>
-    <mergeCell ref="B6:D9"/>
-    <mergeCell ref="E6:G9"/>
-    <mergeCell ref="H6:J9"/>
-    <mergeCell ref="K6:W9"/>
     <mergeCell ref="B10:D13"/>
     <mergeCell ref="E10:G13"/>
     <mergeCell ref="H10:J13"/>
@@ -1378,10 +1382,6 @@
     <mergeCell ref="H18:J21"/>
     <mergeCell ref="K18:W21"/>
     <mergeCell ref="K10:W13"/>
-    <mergeCell ref="B14:D17"/>
-    <mergeCell ref="E14:G17"/>
-    <mergeCell ref="H14:J17"/>
-    <mergeCell ref="K14:W17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Logboek/Logboek werkwijze.xlsx
+++ b/Logboek/Logboek werkwijze.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\31613\Documents\Mediacollege Amsterdam\Leerjaar 2\Periode 2.2\Radicale kunstspeeltuin\Logboek\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70761C69-BD44-4C1E-9DEC-0F8941B402B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5320903-E04C-4113-85CF-F5FC12DB66E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{E8E2B147-EA8F-468F-BA10-E1A0455F2466}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="20">
   <si>
     <t>Waar</t>
   </si>
@@ -91,6 +91,9 @@
   </si>
   <si>
     <t>2/12/2021  09:00 - 15:45    (Sprint 0)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">We hebben beslist dat we een app gaan maken waarmee je informatie op kan vinden en licht mee kan veranderen. </t>
   </si>
 </sst>
 </file>
@@ -328,6 +331,33 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -355,6 +385,24 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -363,51 +411,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -726,60 +729,60 @@
   <dimension ref="B2:W25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K22" sqref="K22:W25"/>
+      <selection activeCell="K28" sqref="K28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="2" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B2" s="32" t="s">
+      <c r="B2" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="33"/>
-      <c r="D2" s="33"/>
-      <c r="E2" s="33"/>
-      <c r="F2" s="33"/>
-      <c r="G2" s="33"/>
-      <c r="H2" s="33"/>
-      <c r="I2" s="33"/>
-      <c r="J2" s="33"/>
-      <c r="K2" s="33"/>
-      <c r="L2" s="33"/>
-      <c r="M2" s="33"/>
-      <c r="N2" s="33"/>
-      <c r="O2" s="33"/>
-      <c r="P2" s="33"/>
-      <c r="Q2" s="33"/>
-      <c r="R2" s="33"/>
-      <c r="S2" s="33"/>
-      <c r="T2" s="33"/>
-      <c r="U2" s="33"/>
-      <c r="V2" s="33"/>
-      <c r="W2" s="34"/>
+      <c r="C2" s="39"/>
+      <c r="D2" s="39"/>
+      <c r="E2" s="39"/>
+      <c r="F2" s="39"/>
+      <c r="G2" s="39"/>
+      <c r="H2" s="39"/>
+      <c r="I2" s="39"/>
+      <c r="J2" s="39"/>
+      <c r="K2" s="39"/>
+      <c r="L2" s="39"/>
+      <c r="M2" s="39"/>
+      <c r="N2" s="39"/>
+      <c r="O2" s="39"/>
+      <c r="P2" s="39"/>
+      <c r="Q2" s="39"/>
+      <c r="R2" s="39"/>
+      <c r="S2" s="39"/>
+      <c r="T2" s="39"/>
+      <c r="U2" s="39"/>
+      <c r="V2" s="39"/>
+      <c r="W2" s="40"/>
     </row>
     <row r="3" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B3" s="35"/>
-      <c r="C3" s="36"/>
-      <c r="D3" s="36"/>
-      <c r="E3" s="36"/>
-      <c r="F3" s="36"/>
-      <c r="G3" s="36"/>
-      <c r="H3" s="36"/>
-      <c r="I3" s="36"/>
-      <c r="J3" s="36"/>
-      <c r="K3" s="36"/>
-      <c r="L3" s="36"/>
-      <c r="M3" s="36"/>
-      <c r="N3" s="36"/>
-      <c r="O3" s="36"/>
-      <c r="P3" s="36"/>
-      <c r="Q3" s="36"/>
-      <c r="R3" s="36"/>
-      <c r="S3" s="36"/>
-      <c r="T3" s="36"/>
-      <c r="U3" s="36"/>
-      <c r="V3" s="36"/>
-      <c r="W3" s="37"/>
+      <c r="B3" s="41"/>
+      <c r="C3" s="42"/>
+      <c r="D3" s="42"/>
+      <c r="E3" s="42"/>
+      <c r="F3" s="42"/>
+      <c r="G3" s="42"/>
+      <c r="H3" s="42"/>
+      <c r="I3" s="42"/>
+      <c r="J3" s="42"/>
+      <c r="K3" s="42"/>
+      <c r="L3" s="42"/>
+      <c r="M3" s="42"/>
+      <c r="N3" s="42"/>
+      <c r="O3" s="42"/>
+      <c r="P3" s="42"/>
+      <c r="Q3" s="42"/>
+      <c r="R3" s="42"/>
+      <c r="S3" s="42"/>
+      <c r="T3" s="42"/>
+      <c r="U3" s="42"/>
+      <c r="V3" s="42"/>
+      <c r="W3" s="43"/>
     </row>
     <row r="4" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B4" s="1"/>
@@ -806,36 +809,36 @@
       <c r="W4" s="1"/>
     </row>
     <row r="5" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B5" s="29" t="s">
+      <c r="B5" s="44" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="30"/>
-      <c r="D5" s="31"/>
-      <c r="E5" s="29" t="s">
+      <c r="C5" s="45"/>
+      <c r="D5" s="46"/>
+      <c r="E5" s="44" t="s">
         <v>0</v>
       </c>
-      <c r="F5" s="30"/>
-      <c r="G5" s="31"/>
-      <c r="H5" s="29" t="s">
+      <c r="F5" s="45"/>
+      <c r="G5" s="46"/>
+      <c r="H5" s="44" t="s">
         <v>3</v>
       </c>
-      <c r="I5" s="30"/>
-      <c r="J5" s="31"/>
-      <c r="K5" s="29" t="s">
+      <c r="I5" s="45"/>
+      <c r="J5" s="46"/>
+      <c r="K5" s="44" t="s">
         <v>1</v>
       </c>
-      <c r="L5" s="30"/>
-      <c r="M5" s="30"/>
-      <c r="N5" s="30"/>
-      <c r="O5" s="30"/>
-      <c r="P5" s="30"/>
-      <c r="Q5" s="30"/>
-      <c r="R5" s="30"/>
-      <c r="S5" s="30"/>
-      <c r="T5" s="30"/>
-      <c r="U5" s="30"/>
-      <c r="V5" s="30"/>
-      <c r="W5" s="31"/>
+      <c r="L5" s="45"/>
+      <c r="M5" s="45"/>
+      <c r="N5" s="45"/>
+      <c r="O5" s="45"/>
+      <c r="P5" s="45"/>
+      <c r="Q5" s="45"/>
+      <c r="R5" s="45"/>
+      <c r="S5" s="45"/>
+      <c r="T5" s="45"/>
+      <c r="U5" s="45"/>
+      <c r="V5" s="45"/>
+      <c r="W5" s="46"/>
     </row>
     <row r="6" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="2" t="s">
@@ -848,26 +851,26 @@
       </c>
       <c r="F6" s="12"/>
       <c r="G6" s="13"/>
-      <c r="H6" s="38" t="s">
+      <c r="H6" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="I6" s="39"/>
-      <c r="J6" s="40"/>
-      <c r="K6" s="20" t="s">
+      <c r="I6" s="21"/>
+      <c r="J6" s="22"/>
+      <c r="K6" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="L6" s="21"/>
-      <c r="M6" s="21"/>
-      <c r="N6" s="21"/>
-      <c r="O6" s="21"/>
-      <c r="P6" s="21"/>
-      <c r="Q6" s="21"/>
-      <c r="R6" s="21"/>
-      <c r="S6" s="21"/>
-      <c r="T6" s="21"/>
-      <c r="U6" s="21"/>
-      <c r="V6" s="21"/>
-      <c r="W6" s="22"/>
+      <c r="L6" s="30"/>
+      <c r="M6" s="30"/>
+      <c r="N6" s="30"/>
+      <c r="O6" s="30"/>
+      <c r="P6" s="30"/>
+      <c r="Q6" s="30"/>
+      <c r="R6" s="30"/>
+      <c r="S6" s="30"/>
+      <c r="T6" s="30"/>
+      <c r="U6" s="30"/>
+      <c r="V6" s="30"/>
+      <c r="W6" s="31"/>
     </row>
     <row r="7" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B7" s="5"/>
@@ -876,22 +879,22 @@
       <c r="E7" s="14"/>
       <c r="F7" s="15"/>
       <c r="G7" s="16"/>
-      <c r="H7" s="41"/>
-      <c r="I7" s="42"/>
-      <c r="J7" s="43"/>
-      <c r="K7" s="23"/>
-      <c r="L7" s="24"/>
-      <c r="M7" s="24"/>
-      <c r="N7" s="24"/>
-      <c r="O7" s="24"/>
-      <c r="P7" s="24"/>
-      <c r="Q7" s="24"/>
-      <c r="R7" s="24"/>
-      <c r="S7" s="24"/>
-      <c r="T7" s="24"/>
-      <c r="U7" s="24"/>
-      <c r="V7" s="24"/>
-      <c r="W7" s="25"/>
+      <c r="H7" s="23"/>
+      <c r="I7" s="24"/>
+      <c r="J7" s="25"/>
+      <c r="K7" s="32"/>
+      <c r="L7" s="33"/>
+      <c r="M7" s="33"/>
+      <c r="N7" s="33"/>
+      <c r="O7" s="33"/>
+      <c r="P7" s="33"/>
+      <c r="Q7" s="33"/>
+      <c r="R7" s="33"/>
+      <c r="S7" s="33"/>
+      <c r="T7" s="33"/>
+      <c r="U7" s="33"/>
+      <c r="V7" s="33"/>
+      <c r="W7" s="34"/>
     </row>
     <row r="8" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B8" s="5"/>
@@ -900,22 +903,22 @@
       <c r="E8" s="14"/>
       <c r="F8" s="15"/>
       <c r="G8" s="16"/>
-      <c r="H8" s="41"/>
-      <c r="I8" s="42"/>
-      <c r="J8" s="43"/>
-      <c r="K8" s="23"/>
-      <c r="L8" s="24"/>
-      <c r="M8" s="24"/>
-      <c r="N8" s="24"/>
-      <c r="O8" s="24"/>
-      <c r="P8" s="24"/>
-      <c r="Q8" s="24"/>
-      <c r="R8" s="24"/>
-      <c r="S8" s="24"/>
-      <c r="T8" s="24"/>
-      <c r="U8" s="24"/>
-      <c r="V8" s="24"/>
-      <c r="W8" s="25"/>
+      <c r="H8" s="23"/>
+      <c r="I8" s="24"/>
+      <c r="J8" s="25"/>
+      <c r="K8" s="32"/>
+      <c r="L8" s="33"/>
+      <c r="M8" s="33"/>
+      <c r="N8" s="33"/>
+      <c r="O8" s="33"/>
+      <c r="P8" s="33"/>
+      <c r="Q8" s="33"/>
+      <c r="R8" s="33"/>
+      <c r="S8" s="33"/>
+      <c r="T8" s="33"/>
+      <c r="U8" s="33"/>
+      <c r="V8" s="33"/>
+      <c r="W8" s="34"/>
     </row>
     <row r="9" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B9" s="8"/>
@@ -924,22 +927,22 @@
       <c r="E9" s="17"/>
       <c r="F9" s="18"/>
       <c r="G9" s="19"/>
-      <c r="H9" s="44"/>
-      <c r="I9" s="45"/>
-      <c r="J9" s="46"/>
-      <c r="K9" s="26"/>
-      <c r="L9" s="27"/>
-      <c r="M9" s="27"/>
-      <c r="N9" s="27"/>
-      <c r="O9" s="27"/>
-      <c r="P9" s="27"/>
-      <c r="Q9" s="27"/>
-      <c r="R9" s="27"/>
-      <c r="S9" s="27"/>
-      <c r="T9" s="27"/>
-      <c r="U9" s="27"/>
-      <c r="V9" s="27"/>
-      <c r="W9" s="28"/>
+      <c r="H9" s="26"/>
+      <c r="I9" s="27"/>
+      <c r="J9" s="28"/>
+      <c r="K9" s="35"/>
+      <c r="L9" s="36"/>
+      <c r="M9" s="36"/>
+      <c r="N9" s="36"/>
+      <c r="O9" s="36"/>
+      <c r="P9" s="36"/>
+      <c r="Q9" s="36"/>
+      <c r="R9" s="36"/>
+      <c r="S9" s="36"/>
+      <c r="T9" s="36"/>
+      <c r="U9" s="36"/>
+      <c r="V9" s="36"/>
+      <c r="W9" s="37"/>
     </row>
     <row r="10" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B10" s="2" t="s">
@@ -952,26 +955,26 @@
       </c>
       <c r="F10" s="12"/>
       <c r="G10" s="13"/>
-      <c r="H10" s="38" t="s">
+      <c r="H10" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="I10" s="39"/>
-      <c r="J10" s="40"/>
-      <c r="K10" s="20" t="s">
+      <c r="I10" s="21"/>
+      <c r="J10" s="22"/>
+      <c r="K10" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="L10" s="21"/>
-      <c r="M10" s="21"/>
-      <c r="N10" s="21"/>
-      <c r="O10" s="21"/>
-      <c r="P10" s="21"/>
-      <c r="Q10" s="21"/>
-      <c r="R10" s="21"/>
-      <c r="S10" s="21"/>
-      <c r="T10" s="21"/>
-      <c r="U10" s="21"/>
-      <c r="V10" s="21"/>
-      <c r="W10" s="22"/>
+      <c r="L10" s="30"/>
+      <c r="M10" s="30"/>
+      <c r="N10" s="30"/>
+      <c r="O10" s="30"/>
+      <c r="P10" s="30"/>
+      <c r="Q10" s="30"/>
+      <c r="R10" s="30"/>
+      <c r="S10" s="30"/>
+      <c r="T10" s="30"/>
+      <c r="U10" s="30"/>
+      <c r="V10" s="30"/>
+      <c r="W10" s="31"/>
     </row>
     <row r="11" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B11" s="5"/>
@@ -980,22 +983,22 @@
       <c r="E11" s="14"/>
       <c r="F11" s="15"/>
       <c r="G11" s="16"/>
-      <c r="H11" s="41"/>
-      <c r="I11" s="42"/>
-      <c r="J11" s="43"/>
-      <c r="K11" s="23"/>
-      <c r="L11" s="24"/>
-      <c r="M11" s="24"/>
-      <c r="N11" s="24"/>
-      <c r="O11" s="24"/>
-      <c r="P11" s="24"/>
-      <c r="Q11" s="24"/>
-      <c r="R11" s="24"/>
-      <c r="S11" s="24"/>
-      <c r="T11" s="24"/>
-      <c r="U11" s="24"/>
-      <c r="V11" s="24"/>
-      <c r="W11" s="25"/>
+      <c r="H11" s="23"/>
+      <c r="I11" s="24"/>
+      <c r="J11" s="25"/>
+      <c r="K11" s="32"/>
+      <c r="L11" s="33"/>
+      <c r="M11" s="33"/>
+      <c r="N11" s="33"/>
+      <c r="O11" s="33"/>
+      <c r="P11" s="33"/>
+      <c r="Q11" s="33"/>
+      <c r="R11" s="33"/>
+      <c r="S11" s="33"/>
+      <c r="T11" s="33"/>
+      <c r="U11" s="33"/>
+      <c r="V11" s="33"/>
+      <c r="W11" s="34"/>
     </row>
     <row r="12" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B12" s="5"/>
@@ -1004,22 +1007,22 @@
       <c r="E12" s="14"/>
       <c r="F12" s="15"/>
       <c r="G12" s="16"/>
-      <c r="H12" s="41"/>
-      <c r="I12" s="42"/>
-      <c r="J12" s="43"/>
-      <c r="K12" s="23"/>
-      <c r="L12" s="24"/>
-      <c r="M12" s="24"/>
-      <c r="N12" s="24"/>
-      <c r="O12" s="24"/>
-      <c r="P12" s="24"/>
-      <c r="Q12" s="24"/>
-      <c r="R12" s="24"/>
-      <c r="S12" s="24"/>
-      <c r="T12" s="24"/>
-      <c r="U12" s="24"/>
-      <c r="V12" s="24"/>
-      <c r="W12" s="25"/>
+      <c r="H12" s="23"/>
+      <c r="I12" s="24"/>
+      <c r="J12" s="25"/>
+      <c r="K12" s="32"/>
+      <c r="L12" s="33"/>
+      <c r="M12" s="33"/>
+      <c r="N12" s="33"/>
+      <c r="O12" s="33"/>
+      <c r="P12" s="33"/>
+      <c r="Q12" s="33"/>
+      <c r="R12" s="33"/>
+      <c r="S12" s="33"/>
+      <c r="T12" s="33"/>
+      <c r="U12" s="33"/>
+      <c r="V12" s="33"/>
+      <c r="W12" s="34"/>
     </row>
     <row r="13" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B13" s="8"/>
@@ -1028,22 +1031,22 @@
       <c r="E13" s="17"/>
       <c r="F13" s="18"/>
       <c r="G13" s="19"/>
-      <c r="H13" s="44"/>
-      <c r="I13" s="45"/>
-      <c r="J13" s="46"/>
-      <c r="K13" s="26"/>
-      <c r="L13" s="27"/>
-      <c r="M13" s="27"/>
-      <c r="N13" s="27"/>
-      <c r="O13" s="27"/>
-      <c r="P13" s="27"/>
-      <c r="Q13" s="27"/>
-      <c r="R13" s="27"/>
-      <c r="S13" s="27"/>
-      <c r="T13" s="27"/>
-      <c r="U13" s="27"/>
-      <c r="V13" s="27"/>
-      <c r="W13" s="28"/>
+      <c r="H13" s="26"/>
+      <c r="I13" s="27"/>
+      <c r="J13" s="28"/>
+      <c r="K13" s="35"/>
+      <c r="L13" s="36"/>
+      <c r="M13" s="36"/>
+      <c r="N13" s="36"/>
+      <c r="O13" s="36"/>
+      <c r="P13" s="36"/>
+      <c r="Q13" s="36"/>
+      <c r="R13" s="36"/>
+      <c r="S13" s="36"/>
+      <c r="T13" s="36"/>
+      <c r="U13" s="36"/>
+      <c r="V13" s="36"/>
+      <c r="W13" s="37"/>
     </row>
     <row r="14" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B14" s="2" t="s">
@@ -1056,26 +1059,26 @@
       </c>
       <c r="F14" s="12"/>
       <c r="G14" s="13"/>
-      <c r="H14" s="38" t="s">
+      <c r="H14" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="I14" s="39"/>
-      <c r="J14" s="40"/>
-      <c r="K14" s="20" t="s">
+      <c r="I14" s="21"/>
+      <c r="J14" s="22"/>
+      <c r="K14" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="L14" s="21"/>
-      <c r="M14" s="21"/>
-      <c r="N14" s="21"/>
-      <c r="O14" s="21"/>
-      <c r="P14" s="21"/>
-      <c r="Q14" s="21"/>
-      <c r="R14" s="21"/>
-      <c r="S14" s="21"/>
-      <c r="T14" s="21"/>
-      <c r="U14" s="21"/>
-      <c r="V14" s="21"/>
-      <c r="W14" s="22"/>
+      <c r="L14" s="30"/>
+      <c r="M14" s="30"/>
+      <c r="N14" s="30"/>
+      <c r="O14" s="30"/>
+      <c r="P14" s="30"/>
+      <c r="Q14" s="30"/>
+      <c r="R14" s="30"/>
+      <c r="S14" s="30"/>
+      <c r="T14" s="30"/>
+      <c r="U14" s="30"/>
+      <c r="V14" s="30"/>
+      <c r="W14" s="31"/>
     </row>
     <row r="15" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B15" s="5"/>
@@ -1084,22 +1087,22 @@
       <c r="E15" s="14"/>
       <c r="F15" s="15"/>
       <c r="G15" s="16"/>
-      <c r="H15" s="41"/>
-      <c r="I15" s="42"/>
-      <c r="J15" s="43"/>
-      <c r="K15" s="23"/>
-      <c r="L15" s="24"/>
-      <c r="M15" s="24"/>
-      <c r="N15" s="24"/>
-      <c r="O15" s="24"/>
-      <c r="P15" s="24"/>
-      <c r="Q15" s="24"/>
-      <c r="R15" s="24"/>
-      <c r="S15" s="24"/>
-      <c r="T15" s="24"/>
-      <c r="U15" s="24"/>
-      <c r="V15" s="24"/>
-      <c r="W15" s="25"/>
+      <c r="H15" s="23"/>
+      <c r="I15" s="24"/>
+      <c r="J15" s="25"/>
+      <c r="K15" s="32"/>
+      <c r="L15" s="33"/>
+      <c r="M15" s="33"/>
+      <c r="N15" s="33"/>
+      <c r="O15" s="33"/>
+      <c r="P15" s="33"/>
+      <c r="Q15" s="33"/>
+      <c r="R15" s="33"/>
+      <c r="S15" s="33"/>
+      <c r="T15" s="33"/>
+      <c r="U15" s="33"/>
+      <c r="V15" s="33"/>
+      <c r="W15" s="34"/>
     </row>
     <row r="16" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B16" s="5"/>
@@ -1108,22 +1111,22 @@
       <c r="E16" s="14"/>
       <c r="F16" s="15"/>
       <c r="G16" s="16"/>
-      <c r="H16" s="41"/>
-      <c r="I16" s="42"/>
-      <c r="J16" s="43"/>
-      <c r="K16" s="23"/>
-      <c r="L16" s="24"/>
-      <c r="M16" s="24"/>
-      <c r="N16" s="24"/>
-      <c r="O16" s="24"/>
-      <c r="P16" s="24"/>
-      <c r="Q16" s="24"/>
-      <c r="R16" s="24"/>
-      <c r="S16" s="24"/>
-      <c r="T16" s="24"/>
-      <c r="U16" s="24"/>
-      <c r="V16" s="24"/>
-      <c r="W16" s="25"/>
+      <c r="H16" s="23"/>
+      <c r="I16" s="24"/>
+      <c r="J16" s="25"/>
+      <c r="K16" s="32"/>
+      <c r="L16" s="33"/>
+      <c r="M16" s="33"/>
+      <c r="N16" s="33"/>
+      <c r="O16" s="33"/>
+      <c r="P16" s="33"/>
+      <c r="Q16" s="33"/>
+      <c r="R16" s="33"/>
+      <c r="S16" s="33"/>
+      <c r="T16" s="33"/>
+      <c r="U16" s="33"/>
+      <c r="V16" s="33"/>
+      <c r="W16" s="34"/>
     </row>
     <row r="17" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B17" s="8"/>
@@ -1132,22 +1135,22 @@
       <c r="E17" s="17"/>
       <c r="F17" s="18"/>
       <c r="G17" s="19"/>
-      <c r="H17" s="44"/>
-      <c r="I17" s="45"/>
-      <c r="J17" s="46"/>
-      <c r="K17" s="26"/>
-      <c r="L17" s="27"/>
-      <c r="M17" s="27"/>
-      <c r="N17" s="27"/>
-      <c r="O17" s="27"/>
-      <c r="P17" s="27"/>
-      <c r="Q17" s="27"/>
-      <c r="R17" s="27"/>
-      <c r="S17" s="27"/>
-      <c r="T17" s="27"/>
-      <c r="U17" s="27"/>
-      <c r="V17" s="27"/>
-      <c r="W17" s="28"/>
+      <c r="H17" s="26"/>
+      <c r="I17" s="27"/>
+      <c r="J17" s="28"/>
+      <c r="K17" s="35"/>
+      <c r="L17" s="36"/>
+      <c r="M17" s="36"/>
+      <c r="N17" s="36"/>
+      <c r="O17" s="36"/>
+      <c r="P17" s="36"/>
+      <c r="Q17" s="36"/>
+      <c r="R17" s="36"/>
+      <c r="S17" s="36"/>
+      <c r="T17" s="36"/>
+      <c r="U17" s="36"/>
+      <c r="V17" s="36"/>
+      <c r="W17" s="37"/>
     </row>
     <row r="18" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B18" s="2" t="s">
@@ -1160,26 +1163,26 @@
       </c>
       <c r="F18" s="12"/>
       <c r="G18" s="13"/>
-      <c r="H18" s="38" t="s">
+      <c r="H18" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="I18" s="39"/>
-      <c r="J18" s="40"/>
-      <c r="K18" s="20" t="s">
+      <c r="I18" s="21"/>
+      <c r="J18" s="22"/>
+      <c r="K18" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="L18" s="21"/>
-      <c r="M18" s="21"/>
-      <c r="N18" s="21"/>
-      <c r="O18" s="21"/>
-      <c r="P18" s="21"/>
-      <c r="Q18" s="21"/>
-      <c r="R18" s="21"/>
-      <c r="S18" s="21"/>
-      <c r="T18" s="21"/>
-      <c r="U18" s="21"/>
-      <c r="V18" s="21"/>
-      <c r="W18" s="22"/>
+      <c r="L18" s="30"/>
+      <c r="M18" s="30"/>
+      <c r="N18" s="30"/>
+      <c r="O18" s="30"/>
+      <c r="P18" s="30"/>
+      <c r="Q18" s="30"/>
+      <c r="R18" s="30"/>
+      <c r="S18" s="30"/>
+      <c r="T18" s="30"/>
+      <c r="U18" s="30"/>
+      <c r="V18" s="30"/>
+      <c r="W18" s="31"/>
     </row>
     <row r="19" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B19" s="5"/>
@@ -1188,22 +1191,22 @@
       <c r="E19" s="14"/>
       <c r="F19" s="15"/>
       <c r="G19" s="16"/>
-      <c r="H19" s="41"/>
-      <c r="I19" s="42"/>
-      <c r="J19" s="43"/>
-      <c r="K19" s="23"/>
-      <c r="L19" s="24"/>
-      <c r="M19" s="24"/>
-      <c r="N19" s="24"/>
-      <c r="O19" s="24"/>
-      <c r="P19" s="24"/>
-      <c r="Q19" s="24"/>
-      <c r="R19" s="24"/>
-      <c r="S19" s="24"/>
-      <c r="T19" s="24"/>
-      <c r="U19" s="24"/>
-      <c r="V19" s="24"/>
-      <c r="W19" s="25"/>
+      <c r="H19" s="23"/>
+      <c r="I19" s="24"/>
+      <c r="J19" s="25"/>
+      <c r="K19" s="32"/>
+      <c r="L19" s="33"/>
+      <c r="M19" s="33"/>
+      <c r="N19" s="33"/>
+      <c r="O19" s="33"/>
+      <c r="P19" s="33"/>
+      <c r="Q19" s="33"/>
+      <c r="R19" s="33"/>
+      <c r="S19" s="33"/>
+      <c r="T19" s="33"/>
+      <c r="U19" s="33"/>
+      <c r="V19" s="33"/>
+      <c r="W19" s="34"/>
     </row>
     <row r="20" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B20" s="5"/>
@@ -1212,22 +1215,22 @@
       <c r="E20" s="14"/>
       <c r="F20" s="15"/>
       <c r="G20" s="16"/>
-      <c r="H20" s="41"/>
-      <c r="I20" s="42"/>
-      <c r="J20" s="43"/>
-      <c r="K20" s="23"/>
-      <c r="L20" s="24"/>
-      <c r="M20" s="24"/>
-      <c r="N20" s="24"/>
-      <c r="O20" s="24"/>
-      <c r="P20" s="24"/>
-      <c r="Q20" s="24"/>
-      <c r="R20" s="24"/>
-      <c r="S20" s="24"/>
-      <c r="T20" s="24"/>
-      <c r="U20" s="24"/>
-      <c r="V20" s="24"/>
-      <c r="W20" s="25"/>
+      <c r="H20" s="23"/>
+      <c r="I20" s="24"/>
+      <c r="J20" s="25"/>
+      <c r="K20" s="32"/>
+      <c r="L20" s="33"/>
+      <c r="M20" s="33"/>
+      <c r="N20" s="33"/>
+      <c r="O20" s="33"/>
+      <c r="P20" s="33"/>
+      <c r="Q20" s="33"/>
+      <c r="R20" s="33"/>
+      <c r="S20" s="33"/>
+      <c r="T20" s="33"/>
+      <c r="U20" s="33"/>
+      <c r="V20" s="33"/>
+      <c r="W20" s="34"/>
     </row>
     <row r="21" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B21" s="8"/>
@@ -1236,22 +1239,22 @@
       <c r="E21" s="17"/>
       <c r="F21" s="18"/>
       <c r="G21" s="19"/>
-      <c r="H21" s="44"/>
-      <c r="I21" s="45"/>
-      <c r="J21" s="46"/>
-      <c r="K21" s="26"/>
-      <c r="L21" s="27"/>
-      <c r="M21" s="27"/>
-      <c r="N21" s="27"/>
-      <c r="O21" s="27"/>
-      <c r="P21" s="27"/>
-      <c r="Q21" s="27"/>
-      <c r="R21" s="27"/>
-      <c r="S21" s="27"/>
-      <c r="T21" s="27"/>
-      <c r="U21" s="27"/>
-      <c r="V21" s="27"/>
-      <c r="W21" s="28"/>
+      <c r="H21" s="26"/>
+      <c r="I21" s="27"/>
+      <c r="J21" s="28"/>
+      <c r="K21" s="35"/>
+      <c r="L21" s="36"/>
+      <c r="M21" s="36"/>
+      <c r="N21" s="36"/>
+      <c r="O21" s="36"/>
+      <c r="P21" s="36"/>
+      <c r="Q21" s="36"/>
+      <c r="R21" s="36"/>
+      <c r="S21" s="36"/>
+      <c r="T21" s="36"/>
+      <c r="U21" s="36"/>
+      <c r="V21" s="36"/>
+      <c r="W21" s="37"/>
     </row>
     <row r="22" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B22" s="2" t="s">
@@ -1264,24 +1267,26 @@
       </c>
       <c r="F22" s="12"/>
       <c r="G22" s="13"/>
-      <c r="H22" s="38" t="s">
+      <c r="H22" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="I22" s="39"/>
-      <c r="J22" s="40"/>
-      <c r="K22" s="20"/>
-      <c r="L22" s="21"/>
-      <c r="M22" s="21"/>
-      <c r="N22" s="21"/>
-      <c r="O22" s="21"/>
-      <c r="P22" s="21"/>
-      <c r="Q22" s="21"/>
-      <c r="R22" s="21"/>
-      <c r="S22" s="21"/>
-      <c r="T22" s="21"/>
-      <c r="U22" s="21"/>
-      <c r="V22" s="21"/>
-      <c r="W22" s="22"/>
+      <c r="I22" s="21"/>
+      <c r="J22" s="22"/>
+      <c r="K22" s="29" t="s">
+        <v>19</v>
+      </c>
+      <c r="L22" s="30"/>
+      <c r="M22" s="30"/>
+      <c r="N22" s="30"/>
+      <c r="O22" s="30"/>
+      <c r="P22" s="30"/>
+      <c r="Q22" s="30"/>
+      <c r="R22" s="30"/>
+      <c r="S22" s="30"/>
+      <c r="T22" s="30"/>
+      <c r="U22" s="30"/>
+      <c r="V22" s="30"/>
+      <c r="W22" s="31"/>
     </row>
     <row r="23" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B23" s="5"/>
@@ -1290,22 +1295,22 @@
       <c r="E23" s="14"/>
       <c r="F23" s="15"/>
       <c r="G23" s="16"/>
-      <c r="H23" s="41"/>
-      <c r="I23" s="42"/>
-      <c r="J23" s="43"/>
-      <c r="K23" s="23"/>
-      <c r="L23" s="24"/>
-      <c r="M23" s="24"/>
-      <c r="N23" s="24"/>
-      <c r="O23" s="24"/>
-      <c r="P23" s="24"/>
-      <c r="Q23" s="24"/>
-      <c r="R23" s="24"/>
-      <c r="S23" s="24"/>
-      <c r="T23" s="24"/>
-      <c r="U23" s="24"/>
-      <c r="V23" s="24"/>
-      <c r="W23" s="25"/>
+      <c r="H23" s="23"/>
+      <c r="I23" s="24"/>
+      <c r="J23" s="25"/>
+      <c r="K23" s="32"/>
+      <c r="L23" s="33"/>
+      <c r="M23" s="33"/>
+      <c r="N23" s="33"/>
+      <c r="O23" s="33"/>
+      <c r="P23" s="33"/>
+      <c r="Q23" s="33"/>
+      <c r="R23" s="33"/>
+      <c r="S23" s="33"/>
+      <c r="T23" s="33"/>
+      <c r="U23" s="33"/>
+      <c r="V23" s="33"/>
+      <c r="W23" s="34"/>
     </row>
     <row r="24" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B24" s="5"/>
@@ -1314,22 +1319,22 @@
       <c r="E24" s="14"/>
       <c r="F24" s="15"/>
       <c r="G24" s="16"/>
-      <c r="H24" s="41"/>
-      <c r="I24" s="42"/>
-      <c r="J24" s="43"/>
-      <c r="K24" s="23"/>
-      <c r="L24" s="24"/>
-      <c r="M24" s="24"/>
-      <c r="N24" s="24"/>
-      <c r="O24" s="24"/>
-      <c r="P24" s="24"/>
-      <c r="Q24" s="24"/>
-      <c r="R24" s="24"/>
-      <c r="S24" s="24"/>
-      <c r="T24" s="24"/>
-      <c r="U24" s="24"/>
-      <c r="V24" s="24"/>
-      <c r="W24" s="25"/>
+      <c r="H24" s="23"/>
+      <c r="I24" s="24"/>
+      <c r="J24" s="25"/>
+      <c r="K24" s="32"/>
+      <c r="L24" s="33"/>
+      <c r="M24" s="33"/>
+      <c r="N24" s="33"/>
+      <c r="O24" s="33"/>
+      <c r="P24" s="33"/>
+      <c r="Q24" s="33"/>
+      <c r="R24" s="33"/>
+      <c r="S24" s="33"/>
+      <c r="T24" s="33"/>
+      <c r="U24" s="33"/>
+      <c r="V24" s="33"/>
+      <c r="W24" s="34"/>
     </row>
     <row r="25" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B25" s="8"/>
@@ -1338,34 +1343,25 @@
       <c r="E25" s="17"/>
       <c r="F25" s="18"/>
       <c r="G25" s="19"/>
-      <c r="H25" s="44"/>
-      <c r="I25" s="45"/>
-      <c r="J25" s="46"/>
-      <c r="K25" s="26"/>
-      <c r="L25" s="27"/>
-      <c r="M25" s="27"/>
-      <c r="N25" s="27"/>
-      <c r="O25" s="27"/>
-      <c r="P25" s="27"/>
-      <c r="Q25" s="27"/>
-      <c r="R25" s="27"/>
-      <c r="S25" s="27"/>
-      <c r="T25" s="27"/>
-      <c r="U25" s="27"/>
-      <c r="V25" s="27"/>
-      <c r="W25" s="28"/>
+      <c r="H25" s="26"/>
+      <c r="I25" s="27"/>
+      <c r="J25" s="28"/>
+      <c r="K25" s="35"/>
+      <c r="L25" s="36"/>
+      <c r="M25" s="36"/>
+      <c r="N25" s="36"/>
+      <c r="O25" s="36"/>
+      <c r="P25" s="36"/>
+      <c r="Q25" s="36"/>
+      <c r="R25" s="36"/>
+      <c r="S25" s="36"/>
+      <c r="T25" s="36"/>
+      <c r="U25" s="36"/>
+      <c r="V25" s="36"/>
+      <c r="W25" s="37"/>
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="B14:D17"/>
-    <mergeCell ref="E14:G17"/>
-    <mergeCell ref="H14:J17"/>
-    <mergeCell ref="K14:W17"/>
-    <mergeCell ref="B2:W3"/>
-    <mergeCell ref="B6:D9"/>
-    <mergeCell ref="E6:G9"/>
-    <mergeCell ref="H6:J9"/>
-    <mergeCell ref="K6:W9"/>
     <mergeCell ref="B22:D25"/>
     <mergeCell ref="E22:G25"/>
     <mergeCell ref="H22:J25"/>
@@ -1382,6 +1378,15 @@
     <mergeCell ref="H18:J21"/>
     <mergeCell ref="K18:W21"/>
     <mergeCell ref="K10:W13"/>
+    <mergeCell ref="B14:D17"/>
+    <mergeCell ref="E14:G17"/>
+    <mergeCell ref="H14:J17"/>
+    <mergeCell ref="K14:W17"/>
+    <mergeCell ref="B2:W3"/>
+    <mergeCell ref="B6:D9"/>
+    <mergeCell ref="E6:G9"/>
+    <mergeCell ref="H6:J9"/>
+    <mergeCell ref="K6:W9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Logboek/Logboek werkwijze.xlsx
+++ b/Logboek/Logboek werkwijze.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\31613\Documents\Mediacollege Amsterdam\Leerjaar 2\Periode 2.2\Radicale kunstspeeltuin\Logboek\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5320903-E04C-4113-85CF-F5FC12DB66E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22169331-4791-4B4B-B4B5-C06649617B6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{E8E2B147-EA8F-468F-BA10-E1A0455F2466}"/>
+    <workbookView minimized="1" xWindow="372" yWindow="768" windowWidth="22668" windowHeight="6192" xr2:uid="{E8E2B147-EA8F-468F-BA10-E1A0455F2466}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="26">
   <si>
     <t>Waar</t>
   </si>
@@ -94,6 +94,24 @@
   </si>
   <si>
     <t xml:space="preserve">We hebben beslist dat we een app gaan maken waarmee je informatie op kan vinden en licht mee kan veranderen. </t>
+  </si>
+  <si>
+    <t>Factory en Contactweg</t>
+  </si>
+  <si>
+    <t>8/12/2021 09:00 - 15:45</t>
+  </si>
+  <si>
+    <t>9/12/2021 09:00 - 15:45</t>
+  </si>
+  <si>
+    <t>Jamie, Joost, Tessa, Finn en Disa.</t>
+  </si>
+  <si>
+    <t>15/12/2021 09:00 - 15:45</t>
+  </si>
+  <si>
+    <t>16/12/2021 09:00 - 15:45</t>
   </si>
 </sst>
 </file>
@@ -272,7 +290,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -385,6 +403,15 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -403,14 +430,14 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -726,63 +753,63 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36C63D28-FEAB-4171-A5E8-05BE78072A85}">
-  <dimension ref="B2:W25"/>
+  <dimension ref="B2:W41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K28" sqref="K28"/>
+      <selection activeCell="H26" sqref="H26:J29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="2" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B2" s="38" t="s">
+      <c r="B2" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="39"/>
-      <c r="D2" s="39"/>
-      <c r="E2" s="39"/>
-      <c r="F2" s="39"/>
-      <c r="G2" s="39"/>
-      <c r="H2" s="39"/>
-      <c r="I2" s="39"/>
-      <c r="J2" s="39"/>
-      <c r="K2" s="39"/>
-      <c r="L2" s="39"/>
-      <c r="M2" s="39"/>
-      <c r="N2" s="39"/>
-      <c r="O2" s="39"/>
-      <c r="P2" s="39"/>
-      <c r="Q2" s="39"/>
-      <c r="R2" s="39"/>
-      <c r="S2" s="39"/>
-      <c r="T2" s="39"/>
-      <c r="U2" s="39"/>
-      <c r="V2" s="39"/>
-      <c r="W2" s="40"/>
+      <c r="C2" s="42"/>
+      <c r="D2" s="42"/>
+      <c r="E2" s="42"/>
+      <c r="F2" s="42"/>
+      <c r="G2" s="42"/>
+      <c r="H2" s="42"/>
+      <c r="I2" s="42"/>
+      <c r="J2" s="42"/>
+      <c r="K2" s="42"/>
+      <c r="L2" s="42"/>
+      <c r="M2" s="42"/>
+      <c r="N2" s="42"/>
+      <c r="O2" s="42"/>
+      <c r="P2" s="42"/>
+      <c r="Q2" s="42"/>
+      <c r="R2" s="42"/>
+      <c r="S2" s="42"/>
+      <c r="T2" s="42"/>
+      <c r="U2" s="42"/>
+      <c r="V2" s="42"/>
+      <c r="W2" s="43"/>
     </row>
     <row r="3" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B3" s="41"/>
-      <c r="C3" s="42"/>
-      <c r="D3" s="42"/>
-      <c r="E3" s="42"/>
-      <c r="F3" s="42"/>
-      <c r="G3" s="42"/>
-      <c r="H3" s="42"/>
-      <c r="I3" s="42"/>
-      <c r="J3" s="42"/>
-      <c r="K3" s="42"/>
-      <c r="L3" s="42"/>
-      <c r="M3" s="42"/>
-      <c r="N3" s="42"/>
-      <c r="O3" s="42"/>
-      <c r="P3" s="42"/>
-      <c r="Q3" s="42"/>
-      <c r="R3" s="42"/>
-      <c r="S3" s="42"/>
-      <c r="T3" s="42"/>
-      <c r="U3" s="42"/>
-      <c r="V3" s="42"/>
-      <c r="W3" s="43"/>
+      <c r="B3" s="44"/>
+      <c r="C3" s="45"/>
+      <c r="D3" s="45"/>
+      <c r="E3" s="45"/>
+      <c r="F3" s="45"/>
+      <c r="G3" s="45"/>
+      <c r="H3" s="45"/>
+      <c r="I3" s="45"/>
+      <c r="J3" s="45"/>
+      <c r="K3" s="45"/>
+      <c r="L3" s="45"/>
+      <c r="M3" s="45"/>
+      <c r="N3" s="45"/>
+      <c r="O3" s="45"/>
+      <c r="P3" s="45"/>
+      <c r="Q3" s="45"/>
+      <c r="R3" s="45"/>
+      <c r="S3" s="45"/>
+      <c r="T3" s="45"/>
+      <c r="U3" s="45"/>
+      <c r="V3" s="45"/>
+      <c r="W3" s="46"/>
     </row>
     <row r="4" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B4" s="1"/>
@@ -809,36 +836,36 @@
       <c r="W4" s="1"/>
     </row>
     <row r="5" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B5" s="44" t="s">
+      <c r="B5" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="45"/>
-      <c r="D5" s="46"/>
-      <c r="E5" s="44" t="s">
+      <c r="C5" s="39"/>
+      <c r="D5" s="40"/>
+      <c r="E5" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="F5" s="45"/>
-      <c r="G5" s="46"/>
-      <c r="H5" s="44" t="s">
+      <c r="F5" s="39"/>
+      <c r="G5" s="40"/>
+      <c r="H5" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="I5" s="45"/>
-      <c r="J5" s="46"/>
-      <c r="K5" s="44" t="s">
+      <c r="I5" s="39"/>
+      <c r="J5" s="40"/>
+      <c r="K5" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="L5" s="45"/>
-      <c r="M5" s="45"/>
-      <c r="N5" s="45"/>
-      <c r="O5" s="45"/>
-      <c r="P5" s="45"/>
-      <c r="Q5" s="45"/>
-      <c r="R5" s="45"/>
-      <c r="S5" s="45"/>
-      <c r="T5" s="45"/>
-      <c r="U5" s="45"/>
-      <c r="V5" s="45"/>
-      <c r="W5" s="46"/>
+      <c r="L5" s="39"/>
+      <c r="M5" s="39"/>
+      <c r="N5" s="39"/>
+      <c r="O5" s="39"/>
+      <c r="P5" s="39"/>
+      <c r="Q5" s="39"/>
+      <c r="R5" s="39"/>
+      <c r="S5" s="39"/>
+      <c r="T5" s="39"/>
+      <c r="U5" s="39"/>
+      <c r="V5" s="39"/>
+      <c r="W5" s="40"/>
     </row>
     <row r="6" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="2" t="s">
@@ -1360,8 +1387,441 @@
       <c r="V25" s="36"/>
       <c r="W25" s="37"/>
     </row>
+    <row r="26" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="B26" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C26" s="3"/>
+      <c r="D26" s="4"/>
+      <c r="E26" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="F26" s="12"/>
+      <c r="G26" s="13"/>
+      <c r="H26" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="I26" s="12"/>
+      <c r="J26" s="13"/>
+      <c r="K26" s="29"/>
+      <c r="L26" s="30"/>
+      <c r="M26" s="30"/>
+      <c r="N26" s="30"/>
+      <c r="O26" s="30"/>
+      <c r="P26" s="30"/>
+      <c r="Q26" s="30"/>
+      <c r="R26" s="30"/>
+      <c r="S26" s="30"/>
+      <c r="T26" s="30"/>
+      <c r="U26" s="30"/>
+      <c r="V26" s="30"/>
+      <c r="W26" s="31"/>
+    </row>
+    <row r="27" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="B27" s="5"/>
+      <c r="C27" s="47"/>
+      <c r="D27" s="7"/>
+      <c r="E27" s="14"/>
+      <c r="F27" s="48"/>
+      <c r="G27" s="16"/>
+      <c r="H27" s="14"/>
+      <c r="I27" s="48"/>
+      <c r="J27" s="16"/>
+      <c r="K27" s="32"/>
+      <c r="L27" s="49"/>
+      <c r="M27" s="49"/>
+      <c r="N27" s="49"/>
+      <c r="O27" s="49"/>
+      <c r="P27" s="49"/>
+      <c r="Q27" s="49"/>
+      <c r="R27" s="49"/>
+      <c r="S27" s="49"/>
+      <c r="T27" s="49"/>
+      <c r="U27" s="49"/>
+      <c r="V27" s="49"/>
+      <c r="W27" s="34"/>
+    </row>
+    <row r="28" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="B28" s="5"/>
+      <c r="C28" s="47"/>
+      <c r="D28" s="7"/>
+      <c r="E28" s="14"/>
+      <c r="F28" s="48"/>
+      <c r="G28" s="16"/>
+      <c r="H28" s="14"/>
+      <c r="I28" s="48"/>
+      <c r="J28" s="16"/>
+      <c r="K28" s="32"/>
+      <c r="L28" s="49"/>
+      <c r="M28" s="49"/>
+      <c r="N28" s="49"/>
+      <c r="O28" s="49"/>
+      <c r="P28" s="49"/>
+      <c r="Q28" s="49"/>
+      <c r="R28" s="49"/>
+      <c r="S28" s="49"/>
+      <c r="T28" s="49"/>
+      <c r="U28" s="49"/>
+      <c r="V28" s="49"/>
+      <c r="W28" s="34"/>
+    </row>
+    <row r="29" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="B29" s="8"/>
+      <c r="C29" s="9"/>
+      <c r="D29" s="10"/>
+      <c r="E29" s="17"/>
+      <c r="F29" s="18"/>
+      <c r="G29" s="19"/>
+      <c r="H29" s="17"/>
+      <c r="I29" s="18"/>
+      <c r="J29" s="19"/>
+      <c r="K29" s="35"/>
+      <c r="L29" s="36"/>
+      <c r="M29" s="36"/>
+      <c r="N29" s="36"/>
+      <c r="O29" s="36"/>
+      <c r="P29" s="36"/>
+      <c r="Q29" s="36"/>
+      <c r="R29" s="36"/>
+      <c r="S29" s="36"/>
+      <c r="T29" s="36"/>
+      <c r="U29" s="36"/>
+      <c r="V29" s="36"/>
+      <c r="W29" s="37"/>
+    </row>
+    <row r="30" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="B30" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C30" s="3"/>
+      <c r="D30" s="4"/>
+      <c r="E30" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="F30" s="12"/>
+      <c r="G30" s="13"/>
+      <c r="H30" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="I30" s="12"/>
+      <c r="J30" s="13"/>
+      <c r="K30" s="29"/>
+      <c r="L30" s="30"/>
+      <c r="M30" s="30"/>
+      <c r="N30" s="30"/>
+      <c r="O30" s="30"/>
+      <c r="P30" s="30"/>
+      <c r="Q30" s="30"/>
+      <c r="R30" s="30"/>
+      <c r="S30" s="30"/>
+      <c r="T30" s="30"/>
+      <c r="U30" s="30"/>
+      <c r="V30" s="30"/>
+      <c r="W30" s="31"/>
+    </row>
+    <row r="31" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="B31" s="5"/>
+      <c r="C31" s="47"/>
+      <c r="D31" s="7"/>
+      <c r="E31" s="14"/>
+      <c r="F31" s="48"/>
+      <c r="G31" s="16"/>
+      <c r="H31" s="14"/>
+      <c r="I31" s="48"/>
+      <c r="J31" s="16"/>
+      <c r="K31" s="32"/>
+      <c r="L31" s="49"/>
+      <c r="M31" s="49"/>
+      <c r="N31" s="49"/>
+      <c r="O31" s="49"/>
+      <c r="P31" s="49"/>
+      <c r="Q31" s="49"/>
+      <c r="R31" s="49"/>
+      <c r="S31" s="49"/>
+      <c r="T31" s="49"/>
+      <c r="U31" s="49"/>
+      <c r="V31" s="49"/>
+      <c r="W31" s="34"/>
+    </row>
+    <row r="32" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="B32" s="5"/>
+      <c r="C32" s="47"/>
+      <c r="D32" s="7"/>
+      <c r="E32" s="14"/>
+      <c r="F32" s="48"/>
+      <c r="G32" s="16"/>
+      <c r="H32" s="14"/>
+      <c r="I32" s="48"/>
+      <c r="J32" s="16"/>
+      <c r="K32" s="32"/>
+      <c r="L32" s="49"/>
+      <c r="M32" s="49"/>
+      <c r="N32" s="49"/>
+      <c r="O32" s="49"/>
+      <c r="P32" s="49"/>
+      <c r="Q32" s="49"/>
+      <c r="R32" s="49"/>
+      <c r="S32" s="49"/>
+      <c r="T32" s="49"/>
+      <c r="U32" s="49"/>
+      <c r="V32" s="49"/>
+      <c r="W32" s="34"/>
+    </row>
+    <row r="33" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="B33" s="8"/>
+      <c r="C33" s="9"/>
+      <c r="D33" s="10"/>
+      <c r="E33" s="17"/>
+      <c r="F33" s="18"/>
+      <c r="G33" s="19"/>
+      <c r="H33" s="17"/>
+      <c r="I33" s="18"/>
+      <c r="J33" s="19"/>
+      <c r="K33" s="35"/>
+      <c r="L33" s="36"/>
+      <c r="M33" s="36"/>
+      <c r="N33" s="36"/>
+      <c r="O33" s="36"/>
+      <c r="P33" s="36"/>
+      <c r="Q33" s="36"/>
+      <c r="R33" s="36"/>
+      <c r="S33" s="36"/>
+      <c r="T33" s="36"/>
+      <c r="U33" s="36"/>
+      <c r="V33" s="36"/>
+      <c r="W33" s="37"/>
+    </row>
+    <row r="34" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="B34" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C34" s="3"/>
+      <c r="D34" s="4"/>
+      <c r="E34" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="F34" s="12"/>
+      <c r="G34" s="13"/>
+      <c r="H34" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="I34" s="12"/>
+      <c r="J34" s="13"/>
+      <c r="K34" s="29"/>
+      <c r="L34" s="30"/>
+      <c r="M34" s="30"/>
+      <c r="N34" s="30"/>
+      <c r="O34" s="30"/>
+      <c r="P34" s="30"/>
+      <c r="Q34" s="30"/>
+      <c r="R34" s="30"/>
+      <c r="S34" s="30"/>
+      <c r="T34" s="30"/>
+      <c r="U34" s="30"/>
+      <c r="V34" s="30"/>
+      <c r="W34" s="31"/>
+    </row>
+    <row r="35" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="B35" s="5"/>
+      <c r="C35" s="47"/>
+      <c r="D35" s="7"/>
+      <c r="E35" s="14"/>
+      <c r="F35" s="48"/>
+      <c r="G35" s="16"/>
+      <c r="H35" s="14"/>
+      <c r="I35" s="48"/>
+      <c r="J35" s="16"/>
+      <c r="K35" s="32"/>
+      <c r="L35" s="49"/>
+      <c r="M35" s="49"/>
+      <c r="N35" s="49"/>
+      <c r="O35" s="49"/>
+      <c r="P35" s="49"/>
+      <c r="Q35" s="49"/>
+      <c r="R35" s="49"/>
+      <c r="S35" s="49"/>
+      <c r="T35" s="49"/>
+      <c r="U35" s="49"/>
+      <c r="V35" s="49"/>
+      <c r="W35" s="34"/>
+    </row>
+    <row r="36" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="B36" s="5"/>
+      <c r="C36" s="47"/>
+      <c r="D36" s="7"/>
+      <c r="E36" s="14"/>
+      <c r="F36" s="48"/>
+      <c r="G36" s="16"/>
+      <c r="H36" s="14"/>
+      <c r="I36" s="48"/>
+      <c r="J36" s="16"/>
+      <c r="K36" s="32"/>
+      <c r="L36" s="49"/>
+      <c r="M36" s="49"/>
+      <c r="N36" s="49"/>
+      <c r="O36" s="49"/>
+      <c r="P36" s="49"/>
+      <c r="Q36" s="49"/>
+      <c r="R36" s="49"/>
+      <c r="S36" s="49"/>
+      <c r="T36" s="49"/>
+      <c r="U36" s="49"/>
+      <c r="V36" s="49"/>
+      <c r="W36" s="34"/>
+    </row>
+    <row r="37" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="B37" s="8"/>
+      <c r="C37" s="9"/>
+      <c r="D37" s="10"/>
+      <c r="E37" s="17"/>
+      <c r="F37" s="18"/>
+      <c r="G37" s="19"/>
+      <c r="H37" s="17"/>
+      <c r="I37" s="18"/>
+      <c r="J37" s="19"/>
+      <c r="K37" s="35"/>
+      <c r="L37" s="36"/>
+      <c r="M37" s="36"/>
+      <c r="N37" s="36"/>
+      <c r="O37" s="36"/>
+      <c r="P37" s="36"/>
+      <c r="Q37" s="36"/>
+      <c r="R37" s="36"/>
+      <c r="S37" s="36"/>
+      <c r="T37" s="36"/>
+      <c r="U37" s="36"/>
+      <c r="V37" s="36"/>
+      <c r="W37" s="37"/>
+    </row>
+    <row r="38" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="B38" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C38" s="3"/>
+      <c r="D38" s="4"/>
+      <c r="E38" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="F38" s="12"/>
+      <c r="G38" s="13"/>
+      <c r="H38" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="I38" s="12"/>
+      <c r="J38" s="13"/>
+      <c r="K38" s="29"/>
+      <c r="L38" s="30"/>
+      <c r="M38" s="30"/>
+      <c r="N38" s="30"/>
+      <c r="O38" s="30"/>
+      <c r="P38" s="30"/>
+      <c r="Q38" s="30"/>
+      <c r="R38" s="30"/>
+      <c r="S38" s="30"/>
+      <c r="T38" s="30"/>
+      <c r="U38" s="30"/>
+      <c r="V38" s="30"/>
+      <c r="W38" s="31"/>
+    </row>
+    <row r="39" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="B39" s="5"/>
+      <c r="C39" s="47"/>
+      <c r="D39" s="7"/>
+      <c r="E39" s="14"/>
+      <c r="F39" s="48"/>
+      <c r="G39" s="16"/>
+      <c r="H39" s="14"/>
+      <c r="I39" s="48"/>
+      <c r="J39" s="16"/>
+      <c r="K39" s="32"/>
+      <c r="L39" s="49"/>
+      <c r="M39" s="49"/>
+      <c r="N39" s="49"/>
+      <c r="O39" s="49"/>
+      <c r="P39" s="49"/>
+      <c r="Q39" s="49"/>
+      <c r="R39" s="49"/>
+      <c r="S39" s="49"/>
+      <c r="T39" s="49"/>
+      <c r="U39" s="49"/>
+      <c r="V39" s="49"/>
+      <c r="W39" s="34"/>
+    </row>
+    <row r="40" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="B40" s="5"/>
+      <c r="C40" s="47"/>
+      <c r="D40" s="7"/>
+      <c r="E40" s="14"/>
+      <c r="F40" s="48"/>
+      <c r="G40" s="16"/>
+      <c r="H40" s="14"/>
+      <c r="I40" s="48"/>
+      <c r="J40" s="16"/>
+      <c r="K40" s="32"/>
+      <c r="L40" s="49"/>
+      <c r="M40" s="49"/>
+      <c r="N40" s="49"/>
+      <c r="O40" s="49"/>
+      <c r="P40" s="49"/>
+      <c r="Q40" s="49"/>
+      <c r="R40" s="49"/>
+      <c r="S40" s="49"/>
+      <c r="T40" s="49"/>
+      <c r="U40" s="49"/>
+      <c r="V40" s="49"/>
+      <c r="W40" s="34"/>
+    </row>
+    <row r="41" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="B41" s="8"/>
+      <c r="C41" s="9"/>
+      <c r="D41" s="10"/>
+      <c r="E41" s="17"/>
+      <c r="F41" s="18"/>
+      <c r="G41" s="19"/>
+      <c r="H41" s="17"/>
+      <c r="I41" s="18"/>
+      <c r="J41" s="19"/>
+      <c r="K41" s="35"/>
+      <c r="L41" s="36"/>
+      <c r="M41" s="36"/>
+      <c r="N41" s="36"/>
+      <c r="O41" s="36"/>
+      <c r="P41" s="36"/>
+      <c r="Q41" s="36"/>
+      <c r="R41" s="36"/>
+      <c r="S41" s="36"/>
+      <c r="T41" s="36"/>
+      <c r="U41" s="36"/>
+      <c r="V41" s="36"/>
+      <c r="W41" s="37"/>
+    </row>
   </sheetData>
-  <mergeCells count="25">
+  <mergeCells count="41">
+    <mergeCell ref="B34:D37"/>
+    <mergeCell ref="E34:G37"/>
+    <mergeCell ref="H34:J37"/>
+    <mergeCell ref="K34:W37"/>
+    <mergeCell ref="B38:D41"/>
+    <mergeCell ref="E38:G41"/>
+    <mergeCell ref="H38:J41"/>
+    <mergeCell ref="K38:W41"/>
+    <mergeCell ref="B26:D29"/>
+    <mergeCell ref="E26:G29"/>
+    <mergeCell ref="H26:J29"/>
+    <mergeCell ref="K26:W29"/>
+    <mergeCell ref="B30:D33"/>
+    <mergeCell ref="E30:G33"/>
+    <mergeCell ref="H30:J33"/>
+    <mergeCell ref="K30:W33"/>
+    <mergeCell ref="B14:D17"/>
+    <mergeCell ref="E14:G17"/>
+    <mergeCell ref="H14:J17"/>
+    <mergeCell ref="K14:W17"/>
+    <mergeCell ref="B2:W3"/>
+    <mergeCell ref="B6:D9"/>
+    <mergeCell ref="E6:G9"/>
+    <mergeCell ref="H6:J9"/>
+    <mergeCell ref="K6:W9"/>
     <mergeCell ref="B22:D25"/>
     <mergeCell ref="E22:G25"/>
     <mergeCell ref="H22:J25"/>
@@ -1378,15 +1838,6 @@
     <mergeCell ref="H18:J21"/>
     <mergeCell ref="K18:W21"/>
     <mergeCell ref="K10:W13"/>
-    <mergeCell ref="B14:D17"/>
-    <mergeCell ref="E14:G17"/>
-    <mergeCell ref="H14:J17"/>
-    <mergeCell ref="K14:W17"/>
-    <mergeCell ref="B2:W3"/>
-    <mergeCell ref="B6:D9"/>
-    <mergeCell ref="E6:G9"/>
-    <mergeCell ref="H6:J9"/>
-    <mergeCell ref="K6:W9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
